--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_18_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_18_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-521416.6317394772</v>
+        <v>-522157.0945601994</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1462975.848406074</v>
+        <v>1462975.848406075</v>
       </c>
     </row>
     <row r="8">
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>233.5562907382949</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>250.2137690395492</v>
+        <v>250.2137690395491</v>
       </c>
       <c r="F11" t="n">
-        <v>30.0867740668613</v>
+        <v>29.3621014160598</v>
       </c>
       <c r="G11" t="n">
-        <v>283.0845181045931</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>59.42064602642678</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>65.87283976874612</v>
+        <v>65.87283976874606</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>89.18341408247065</v>
       </c>
       <c r="U11" t="n">
         <v>119.5889224048975</v>
       </c>
       <c r="V11" t="n">
-        <v>196.0356574374223</v>
+        <v>196.0356574374222</v>
       </c>
       <c r="W11" t="n">
-        <v>217.5243676847004</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>238.0144996457564</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.521337623341</v>
+        <v>254.5213376233409</v>
       </c>
     </row>
     <row r="12">
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34.81658261715472</v>
+        <v>34.81658261715467</v>
       </c>
       <c r="C12" t="n">
-        <v>73.44736618700991</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1458,10 +1458,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>13.35261136067126</v>
+        <v>13.3526113606712</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0751276698277</v>
+        <v>121.3081374934066</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>166.6979539789397</v>
+        <v>34.981352946227</v>
       </c>
       <c r="T12" t="n">
-        <v>67.36632966027159</v>
+        <v>67.36632966027153</v>
       </c>
       <c r="U12" t="n">
-        <v>94.20712384475017</v>
+        <v>94.20712384475011</v>
       </c>
       <c r="V12" t="n">
-        <v>101.0839861167127</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>119.978382128207</v>
+        <v>119.9783821282069</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>73.96609474459174</v>
+        <v>73.96609474459169</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.11537914922468</v>
+        <v>48.11537914922462</v>
       </c>
       <c r="C13" t="n">
-        <v>35.53022006591522</v>
+        <v>35.53022006591516</v>
       </c>
       <c r="D13" t="n">
-        <v>16.89887198549974</v>
+        <v>16.89887198549968</v>
       </c>
       <c r="E13" t="n">
-        <v>14.71736161385655</v>
+        <v>14.7173616138565</v>
       </c>
       <c r="F13" t="n">
-        <v>13.70444699021863</v>
+        <v>13.70444699021857</v>
       </c>
       <c r="G13" t="n">
-        <v>36.04936959028129</v>
+        <v>36.04936959028123</v>
       </c>
       <c r="H13" t="n">
-        <v>28.51003926304855</v>
+        <v>28.51003926304849</v>
       </c>
       <c r="I13" t="n">
-        <v>16.96724755892995</v>
+        <v>16.96724755892989</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.45957938437364</v>
+        <v>35.45957938437358</v>
       </c>
       <c r="S13" t="n">
-        <v>88.37870840529492</v>
+        <v>88.37870840529484</v>
       </c>
       <c r="T13" t="n">
-        <v>95.26758743494634</v>
+        <v>95.26758743494628</v>
       </c>
       <c r="U13" t="n">
         <v>154.5901551200256</v>
       </c>
       <c r="V13" t="n">
-        <v>120.4210422911154</v>
+        <v>120.4210422911153</v>
       </c>
       <c r="W13" t="n">
-        <v>154.8063973038784</v>
+        <v>154.8063973038783</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99305435632454</v>
+        <v>93.99305435632448</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.86805231938217</v>
+        <v>86.86805231938212</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>222.9664405879704</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>283.0845181045931</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>202.6210018711096</v>
       </c>
       <c r="I14" t="n">
-        <v>59.42064602642678</v>
+        <v>59.4206460264268</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.87283976874612</v>
+        <v>65.87283976874615</v>
       </c>
       <c r="T14" t="n">
-        <v>89.1834140824707</v>
+        <v>89.18341408247073</v>
       </c>
       <c r="U14" t="n">
-        <v>119.5889224048975</v>
+        <v>119.5889224048976</v>
       </c>
       <c r="V14" t="n">
-        <v>196.0356574374223</v>
+        <v>10.13945945369136</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>217.5243676847004</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>238.0144996457564</v>
       </c>
       <c r="Y14" t="n">
-        <v>209.5245918301038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.81658261715472</v>
+        <v>34.81658261715475</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>40.99189795560315</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>15.72846453192616</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>25.92847942268835</v>
       </c>
       <c r="F15" t="n">
-        <v>13.35261136067126</v>
+        <v>13.35261136067129</v>
       </c>
       <c r="G15" t="n">
-        <v>5.358526637115071</v>
+        <v>5.3585266371151</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S15" t="n">
-        <v>150.9309638025182</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T15" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U15" t="n">
-        <v>94.20712384475017</v>
+        <v>94.2071238447502</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>119.978382128207</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>74.05638417076486</v>
+        <v>106.5118524021718</v>
       </c>
       <c r="Y15" t="n">
-        <v>73.96609474459174</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.11537914922468</v>
+        <v>48.11537914922471</v>
       </c>
       <c r="C16" t="n">
-        <v>35.53022006591522</v>
+        <v>35.53022006591524</v>
       </c>
       <c r="D16" t="n">
-        <v>16.89887198549974</v>
+        <v>16.89887198549977</v>
       </c>
       <c r="E16" t="n">
-        <v>14.71736161385655</v>
+        <v>14.71736161385658</v>
       </c>
       <c r="F16" t="n">
-        <v>13.70444699021863</v>
+        <v>13.70444699021866</v>
       </c>
       <c r="G16" t="n">
-        <v>36.04936959028129</v>
+        <v>36.04936959028132</v>
       </c>
       <c r="H16" t="n">
-        <v>28.51003926304855</v>
+        <v>28.51003926304858</v>
       </c>
       <c r="I16" t="n">
-        <v>16.96724755892995</v>
+        <v>16.96724755892998</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.45957938437364</v>
+        <v>35.45957938437367</v>
       </c>
       <c r="S16" t="n">
-        <v>88.37870840529492</v>
+        <v>88.37870840529493</v>
       </c>
       <c r="T16" t="n">
-        <v>95.26758743494634</v>
+        <v>95.26758743494636</v>
       </c>
       <c r="U16" t="n">
-        <v>154.5901551200256</v>
+        <v>154.5901551200257</v>
       </c>
       <c r="V16" t="n">
         <v>120.4210422911154</v>
@@ -1828,10 +1828,10 @@
         <v>154.8063973038784</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99305435632454</v>
+        <v>93.99305435632456</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.86805231938217</v>
+        <v>86.8680523193822</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>145.3543524373627</v>
+        <v>145.3543524373626</v>
       </c>
       <c r="C17" t="n">
-        <v>127.8934025448897</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D17" t="n">
-        <v>117.3035523945651</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E17" t="n">
-        <v>144.5508808461439</v>
+        <v>144.5508808461438</v>
       </c>
       <c r="F17" t="n">
-        <v>169.4965565155935</v>
+        <v>169.4965565155946</v>
       </c>
       <c r="G17" t="n">
-        <v>177.4216299111878</v>
+        <v>177.4216299111877</v>
       </c>
       <c r="H17" t="n">
-        <v>96.95811367770429</v>
+        <v>96.95811367770423</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.92603421149224</v>
+        <v>13.92603421149219</v>
       </c>
       <c r="V17" t="n">
-        <v>90.37276924401701</v>
+        <v>90.37276924401695</v>
       </c>
       <c r="W17" t="n">
         <v>111.8614794912951</v>
@@ -1910,7 +1910,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y17" t="n">
-        <v>148.8584494299357</v>
+        <v>148.8584494299356</v>
       </c>
     </row>
     <row r="18">
@@ -1920,28 +1920,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,22 +1974,22 @@
         <v>166.6979539789397</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>49.9448915035225</v>
       </c>
       <c r="W18" t="n">
-        <v>122.3609749216649</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2056,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>48.92726692662036</v>
+        <v>48.92726692662031</v>
       </c>
       <c r="V19" t="n">
-        <v>14.7581540977101</v>
+        <v>195.1910385061426</v>
       </c>
       <c r="W19" t="n">
-        <v>49.1435091104731</v>
+        <v>49.14350911047305</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>180.4328844084323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>145.3543524373627</v>
+        <v>145.3543524373626</v>
       </c>
       <c r="C20" t="n">
-        <v>127.8934025448897</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D20" t="n">
-        <v>117.3035523945651</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E20" t="n">
-        <v>144.5508808461439</v>
+        <v>144.5508808461438</v>
       </c>
       <c r="F20" t="n">
         <v>169.4965565155935</v>
@@ -2096,7 +2096,7 @@
         <v>177.4216299111878</v>
       </c>
       <c r="H20" t="n">
-        <v>96.95811367770429</v>
+        <v>96.95811367770423</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.92603421149225</v>
+        <v>13.92603421149218</v>
       </c>
       <c r="V20" t="n">
-        <v>90.37276924401701</v>
+        <v>90.37276924401695</v>
       </c>
       <c r="W20" t="n">
         <v>111.8614794912951</v>
@@ -2147,7 +2147,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y20" t="n">
-        <v>148.8584494299357</v>
+        <v>148.8584494299356</v>
       </c>
     </row>
     <row r="21">
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>33.19693802621276</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S21" t="n">
         <v>166.6979539789397</v>
@@ -2220,13 +2220,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>91.43544154906213</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>48.92726692662036</v>
+        <v>48.92726692662031</v>
       </c>
       <c r="V22" t="n">
-        <v>14.7581540977101</v>
+        <v>14.75815409771005</v>
       </c>
       <c r="W22" t="n">
-        <v>49.1435091104731</v>
+        <v>49.14350911047305</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>180.4328844084323</v>
+        <v>0.6009042264952046</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>145.3543524373627</v>
+        <v>145.3543524373626</v>
       </c>
       <c r="C23" t="n">
-        <v>127.8934025448897</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D23" t="n">
-        <v>117.3035523945651</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E23" t="n">
-        <v>144.5508808461439</v>
+        <v>144.5508808461438</v>
       </c>
       <c r="F23" t="n">
         <v>169.4965565155935</v>
       </c>
       <c r="G23" t="n">
-        <v>177.4216299111878</v>
+        <v>177.4216299111877</v>
       </c>
       <c r="H23" t="n">
-        <v>96.95811367770429</v>
+        <v>96.95811367770423</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>13.92603421149224</v>
+        <v>13.92603421149219</v>
       </c>
       <c r="V23" t="n">
-        <v>90.37276924401701</v>
+        <v>90.37276924401695</v>
       </c>
       <c r="W23" t="n">
         <v>111.8614794912951</v>
@@ -2384,7 +2384,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y23" t="n">
-        <v>148.8584494299357</v>
+        <v>148.8584494299356</v>
       </c>
     </row>
     <row r="24">
@@ -2394,22 +2394,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>23.7971269632312</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>143.9460106836066</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2518,25 +2518,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>67.32062995745123</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>180.4328844084325</v>
       </c>
       <c r="T25" t="n">
-        <v>113.1122544509811</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>48.92726692662036</v>
+        <v>48.92726692662031</v>
       </c>
       <c r="V25" t="n">
-        <v>14.7581540977101</v>
+        <v>14.75815409771005</v>
       </c>
       <c r="W25" t="n">
-        <v>49.1435091104731</v>
+        <v>49.14350911047305</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.54538052300673</v>
+        <v>47.54538052300671</v>
       </c>
       <c r="T26" t="n">
         <v>70.85595483673131</v>
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16.48912337141533</v>
+        <v>162.0696626068274</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>22.66443870986373</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2643,7 +2643,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S27" t="n">
-        <v>20.50333348728362</v>
+        <v>16.65389370048767</v>
       </c>
       <c r="T27" t="n">
         <v>199.0829306929842</v>
@@ -2700,7 +2700,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>55.63863549885235</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2761,7 +2761,7 @@
         <v>17.13212013863425</v>
       </c>
       <c r="S28" t="n">
-        <v>70.05124915955552</v>
+        <v>70.05124915955551</v>
       </c>
       <c r="T28" t="n">
         <v>76.94012818920694</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.54538052300671</v>
+        <v>47.54538052300672</v>
       </c>
       <c r="T29" t="n">
         <v>70.85595483673131</v>
@@ -2877,19 +2877,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>7.601020176948936</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.21906591294261</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S30" t="n">
-        <v>16.65389370048767</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T30" t="n">
-        <v>49.0388704145322</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U30" t="n">
-        <v>75.87966459901078</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V30" t="n">
-        <v>82.75652687097326</v>
+        <v>228.3370661063854</v>
       </c>
       <c r="W30" t="n">
         <v>101.6509228824676</v>
@@ -2998,7 +2998,7 @@
         <v>17.13212013863425</v>
       </c>
       <c r="S31" t="n">
-        <v>70.05124915955552</v>
+        <v>70.05124915955551</v>
       </c>
       <c r="T31" t="n">
         <v>76.94012818920694</v>
@@ -3026,19 +3026,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>232.6897813850285</v>
+        <v>232.6897813850286</v>
       </c>
       <c r="C32" t="n">
-        <v>215.2288314925555</v>
+        <v>215.2288314925556</v>
       </c>
       <c r="D32" t="n">
-        <v>204.6389813422309</v>
+        <v>204.638981342231</v>
       </c>
       <c r="E32" t="n">
-        <v>231.8863097938097</v>
+        <v>231.8863097938098</v>
       </c>
       <c r="F32" t="n">
-        <v>256.8319854632594</v>
+        <v>256.8319854632595</v>
       </c>
       <c r="G32" t="n">
         <v>264.7570588588537</v>
@@ -3047,7 +3047,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I32" t="n">
-        <v>41.09318678068736</v>
+        <v>41.0931867806874</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.5453805230067</v>
+        <v>47.54538052300674</v>
       </c>
       <c r="T32" t="n">
-        <v>70.85595483673129</v>
+        <v>70.85595483673134</v>
       </c>
       <c r="U32" t="n">
-        <v>101.2614631591581</v>
+        <v>101.2614631591582</v>
       </c>
       <c r="V32" t="n">
         <v>177.7081981916829</v>
@@ -3092,10 +3092,10 @@
         <v>199.196908438961</v>
       </c>
       <c r="X32" t="n">
-        <v>219.687040400017</v>
+        <v>219.6870404000171</v>
       </c>
       <c r="Y32" t="n">
-        <v>236.1938783776015</v>
+        <v>236.1938783776016</v>
       </c>
     </row>
     <row r="33">
@@ -3108,25 +3108,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>22.6644387098637</v>
+        <v>22.66443870986376</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>7.601020176948907</v>
+        <v>7.601020176948964</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>65.42450955529571</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S33" t="n">
-        <v>166.6979539789397</v>
+        <v>162.2344329358996</v>
       </c>
       <c r="T33" t="n">
-        <v>49.03887041453217</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U33" t="n">
         <v>225.9237248774628</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.78791990348526</v>
+        <v>29.78791990348532</v>
       </c>
       <c r="C34" t="n">
-        <v>17.2027608201758</v>
+        <v>17.20276082017585</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>17.72191034454187</v>
+        <v>17.72191034454193</v>
       </c>
       <c r="H34" t="n">
-        <v>10.18258001730913</v>
+        <v>10.18258001730919</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>17.13212013863422</v>
+        <v>17.13212013863427</v>
       </c>
       <c r="S34" t="n">
-        <v>70.0512491595555</v>
+        <v>70.05124915955554</v>
       </c>
       <c r="T34" t="n">
-        <v>76.94012818920692</v>
+        <v>76.94012818920697</v>
       </c>
       <c r="U34" t="n">
-        <v>136.2626958742862</v>
+        <v>136.2626958742863</v>
       </c>
       <c r="V34" t="n">
         <v>102.093583045376</v>
@@ -3250,10 +3250,10 @@
         <v>136.478938058139</v>
       </c>
       <c r="X34" t="n">
-        <v>75.66559511058512</v>
+        <v>75.66559511058517</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.54059307364275</v>
+        <v>68.54059307364281</v>
       </c>
     </row>
     <row r="35">
@@ -3351,19 +3351,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H36" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,13 +3393,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>224.0650007744981</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3408,7 +3408,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>13.15000792146933</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>180.4328844084324</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>48.92726692662033</v>
@@ -3484,7 +3484,7 @@
         <v>14.75815409771008</v>
       </c>
       <c r="W37" t="n">
-        <v>49.14350911047308</v>
+        <v>229.5763935189055</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,22 +3503,22 @@
         <v>145.3543524373626</v>
       </c>
       <c r="C38" t="n">
-        <v>127.8934025448896</v>
+        <v>127.8934025448895</v>
       </c>
       <c r="D38" t="n">
-        <v>117.303552394565</v>
+        <v>117.3035523945649</v>
       </c>
       <c r="E38" t="n">
-        <v>144.5508808461439</v>
+        <v>144.5508808461438</v>
       </c>
       <c r="F38" t="n">
-        <v>169.4965565155935</v>
+        <v>169.4965565155934</v>
       </c>
       <c r="G38" t="n">
-        <v>177.4216299111878</v>
+        <v>177.4216299111877</v>
       </c>
       <c r="H38" t="n">
-        <v>96.95811367770426</v>
+        <v>96.95811367770418</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.92603421149221</v>
+        <v>13.92603421149212</v>
       </c>
       <c r="V38" t="n">
-        <v>90.37276924401698</v>
+        <v>90.37276924401689</v>
       </c>
       <c r="W38" t="n">
-        <v>111.8614794912951</v>
+        <v>111.861479491295</v>
       </c>
       <c r="X38" t="n">
-        <v>132.3516114523511</v>
+        <v>132.351611452351</v>
       </c>
       <c r="Y38" t="n">
-        <v>148.8584494299357</v>
+        <v>148.8584494299356</v>
       </c>
     </row>
     <row r="39">
@@ -3579,28 +3579,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>20.42185760344394</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.0751276698277</v>
       </c>
       <c r="H39" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3639,13 +3639,13 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>14.31549393480168</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>140.0750772819519</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>48.92726692662033</v>
+        <v>48.92726692662025</v>
       </c>
       <c r="V40" t="n">
-        <v>195.1910385061425</v>
+        <v>195.1910385061427</v>
       </c>
       <c r="W40" t="n">
-        <v>49.14350911047308</v>
+        <v>49.14350911047299</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3749,13 +3749,13 @@
         <v>161.0303549570785</v>
       </c>
       <c r="F41" t="n">
-        <v>185.9760306265282</v>
+        <v>185.9760306265281</v>
       </c>
       <c r="G41" t="n">
         <v>193.9011040221224</v>
       </c>
       <c r="H41" t="n">
-        <v>113.437587788639</v>
+        <v>113.4375877886389</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.40550832242691</v>
+        <v>30.40550832242685</v>
       </c>
       <c r="V41" t="n">
-        <v>106.8522433549517</v>
+        <v>106.8522433549516</v>
       </c>
       <c r="W41" t="n">
-        <v>128.3409536022298</v>
+        <v>128.3409536022297</v>
       </c>
       <c r="X41" t="n">
-        <v>148.8310855632858</v>
+        <v>148.8310855632857</v>
       </c>
       <c r="Y41" t="n">
         <v>165.3379235408703</v>
@@ -3822,10 +3822,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>137.7713500316992</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>141.3715998381424</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U42" t="n">
-        <v>5.023709762279545</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>30.79496804573631</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>67.32062995745122</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6.08417335247571</v>
+        <v>6.084173352475653</v>
       </c>
       <c r="U43" t="n">
-        <v>65.40674103755502</v>
+        <v>65.40674103755497</v>
       </c>
       <c r="V43" t="n">
-        <v>31.23762820864476</v>
+        <v>84.01764670049256</v>
       </c>
       <c r="W43" t="n">
-        <v>65.62298322140776</v>
+        <v>65.62298322140771</v>
       </c>
       <c r="X43" t="n">
-        <v>4.809640273853915</v>
+        <v>4.809640273853859</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.1006484492987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,22 +3977,22 @@
         <v>161.8338265482973</v>
       </c>
       <c r="C44" t="n">
-        <v>144.3728766558243</v>
+        <v>144.3728766558242</v>
       </c>
       <c r="D44" t="n">
-        <v>133.7830265054997</v>
+        <v>133.7830265054996</v>
       </c>
       <c r="E44" t="n">
         <v>161.0303549570785</v>
       </c>
       <c r="F44" t="n">
-        <v>185.9760306265282</v>
+        <v>185.9760306265281</v>
       </c>
       <c r="G44" t="n">
         <v>193.9011040221224</v>
       </c>
       <c r="H44" t="n">
-        <v>113.437587788639</v>
+        <v>113.4375877886389</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,16 +4031,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>30.40550832242691</v>
+        <v>30.40550832242682</v>
       </c>
       <c r="V44" t="n">
-        <v>106.8522433549517</v>
+        <v>106.8522433549516</v>
       </c>
       <c r="W44" t="n">
-        <v>128.3409536022298</v>
+        <v>128.3409536022297</v>
       </c>
       <c r="X44" t="n">
-        <v>148.8310855632858</v>
+        <v>148.8310855632857</v>
       </c>
       <c r="Y44" t="n">
         <v>165.3379235408703</v>
@@ -4053,22 +4053,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>65.7306752900587</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U45" t="n">
-        <v>155.2834127948883</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4119,10 +4119,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>120.1006484492988</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>6.08417335247571</v>
+        <v>6.084173352475625</v>
       </c>
       <c r="U46" t="n">
-        <v>65.40674103755502</v>
+        <v>65.40674103755494</v>
       </c>
       <c r="V46" t="n">
-        <v>31.23762820864476</v>
+        <v>31.23762820864468</v>
       </c>
       <c r="W46" t="n">
-        <v>65.62298322140776</v>
+        <v>185.7236316707069</v>
       </c>
       <c r="X46" t="n">
-        <v>4.809640273853915</v>
+        <v>4.80964027385383</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>659.5305810511366</v>
+        <v>548.749221411211</v>
       </c>
       <c r="C11" t="n">
-        <v>659.5305810511366</v>
+        <v>312.8337762210141</v>
       </c>
       <c r="D11" t="n">
-        <v>659.5305810511366</v>
+        <v>312.8337762210141</v>
       </c>
       <c r="E11" t="n">
-        <v>406.7894002031071</v>
+        <v>60.0925953729847</v>
       </c>
       <c r="F11" t="n">
-        <v>376.3987193274894</v>
+        <v>30.433907073934</v>
       </c>
       <c r="G11" t="n">
-        <v>90.45476164608228</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H11" t="n">
-        <v>90.45476164608228</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I11" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J11" t="n">
-        <v>60.75260108020954</v>
+        <v>60.75260108020959</v>
       </c>
       <c r="K11" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326557</v>
       </c>
       <c r="L11" t="n">
         <v>485.3806706550283</v>
       </c>
       <c r="M11" t="n">
-        <v>789.5552979241022</v>
+        <v>789.5552979241023</v>
       </c>
       <c r="N11" t="n">
         <v>1084.019791121359</v>
@@ -5057,7 +5057,7 @@
         <v>1316.886624186929</v>
       </c>
       <c r="P11" t="n">
-        <v>1477.958695736266</v>
+        <v>1477.958695736267</v>
       </c>
       <c r="Q11" t="n">
         <v>1521.6953536967</v>
@@ -5069,22 +5069,22 @@
         <v>1455.157131708067</v>
       </c>
       <c r="T11" t="n">
-        <v>1455.157131708067</v>
+        <v>1365.072875059107</v>
       </c>
       <c r="U11" t="n">
-        <v>1334.360240389989</v>
+        <v>1244.275983741029</v>
       </c>
       <c r="V11" t="n">
-        <v>1136.344424796633</v>
+        <v>1046.260168147673</v>
       </c>
       <c r="W11" t="n">
-        <v>916.6228412767335</v>
+        <v>1046.260168147673</v>
       </c>
       <c r="X11" t="n">
-        <v>916.6228412767335</v>
+        <v>805.8414816368079</v>
       </c>
       <c r="Y11" t="n">
-        <v>659.5305810511366</v>
+        <v>548.749221411211</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>564.7422416573164</v>
+        <v>649.0797594602302</v>
       </c>
       <c r="C12" t="n">
-        <v>490.5529828825589</v>
+        <v>474.6267301791032</v>
       </c>
       <c r="D12" t="n">
-        <v>341.6185732213077</v>
+        <v>325.692320517852</v>
       </c>
       <c r="E12" t="n">
-        <v>182.3811182158521</v>
+        <v>166.4548655123965</v>
       </c>
       <c r="F12" t="n">
-        <v>168.8936319929519</v>
+        <v>152.9673792894963</v>
       </c>
       <c r="G12" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H12" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I12" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J12" t="n">
-        <v>54.7981338372213</v>
+        <v>30.433907073934</v>
       </c>
       <c r="K12" t="n">
-        <v>223.0613211674321</v>
+        <v>30.433907073934</v>
       </c>
       <c r="L12" t="n">
-        <v>510.7163377867617</v>
+        <v>318.0889236932636</v>
       </c>
       <c r="M12" t="n">
-        <v>873.0305803211013</v>
+        <v>496.4109802811683</v>
       </c>
       <c r="N12" t="n">
-        <v>873.0305803211013</v>
+        <v>873.0305803211015</v>
       </c>
       <c r="O12" t="n">
         <v>1185.002115453613</v>
@@ -5142,28 +5142,28 @@
         <v>1521.6953536967</v>
       </c>
       <c r="R12" t="n">
-        <v>1437.357835893786</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S12" t="n">
-        <v>1268.976064197888</v>
+        <v>1486.360653751016</v>
       </c>
       <c r="T12" t="n">
-        <v>1200.92926656125</v>
+        <v>1418.313856114378</v>
       </c>
       <c r="U12" t="n">
-        <v>1105.770555606956</v>
+        <v>1323.155145160085</v>
       </c>
       <c r="V12" t="n">
-        <v>1003.665519125428</v>
+        <v>1088.003036928342</v>
       </c>
       <c r="W12" t="n">
-        <v>882.4752341474416</v>
+        <v>966.8127519503554</v>
       </c>
       <c r="X12" t="n">
-        <v>674.6237339419088</v>
+        <v>758.9612517448226</v>
       </c>
       <c r="Y12" t="n">
-        <v>599.9105069271696</v>
+        <v>684.2480247300834</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.4516414858026</v>
+        <v>194.4516414858022</v>
       </c>
       <c r="C13" t="n">
-        <v>158.5625303081105</v>
+        <v>158.5625303081102</v>
       </c>
       <c r="D13" t="n">
-        <v>141.4929626459895</v>
+        <v>141.4929626459893</v>
       </c>
       <c r="E13" t="n">
-        <v>126.6269408138112</v>
+        <v>126.626940813811</v>
       </c>
       <c r="F13" t="n">
-        <v>112.7840650661156</v>
+        <v>112.7840650661154</v>
       </c>
       <c r="G13" t="n">
-        <v>76.37056042946783</v>
+        <v>76.37056042946773</v>
       </c>
       <c r="H13" t="n">
-        <v>47.57254097184303</v>
+        <v>47.57254097184298</v>
       </c>
       <c r="I13" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J13" t="n">
-        <v>84.15679020220479</v>
+        <v>84.15679020220485</v>
       </c>
       <c r="K13" t="n">
-        <v>218.3899330701335</v>
+        <v>218.3899330701336</v>
       </c>
       <c r="L13" t="n">
-        <v>409.2216288383615</v>
+        <v>409.2216288383618</v>
       </c>
       <c r="M13" t="n">
-        <v>483.3280976611676</v>
+        <v>613.7275326835534</v>
       </c>
       <c r="N13" t="n">
-        <v>676.5957735341119</v>
+        <v>806.9952085564964</v>
       </c>
       <c r="O13" t="n">
-        <v>862.8204075624643</v>
+        <v>993.2198425848489</v>
       </c>
       <c r="P13" t="n">
-        <v>1017.467262206714</v>
+        <v>1017.467262206713</v>
       </c>
       <c r="Q13" t="n">
-        <v>1081.219273571223</v>
+        <v>1081.219273571222</v>
       </c>
       <c r="R13" t="n">
-        <v>1045.40151661731</v>
+        <v>1045.401516617309</v>
       </c>
       <c r="S13" t="n">
-        <v>956.1300939856987</v>
+        <v>956.130093985698</v>
       </c>
       <c r="T13" t="n">
-        <v>859.9002076877731</v>
+        <v>859.9002076877724</v>
       </c>
       <c r="U13" t="n">
-        <v>703.7485358493634</v>
+        <v>703.7485358493627</v>
       </c>
       <c r="V13" t="n">
-        <v>582.1111193936913</v>
+        <v>582.1111193936907</v>
       </c>
       <c r="W13" t="n">
-        <v>425.7410211069455</v>
+        <v>425.7410211069449</v>
       </c>
       <c r="X13" t="n">
-        <v>330.7985419591429</v>
+        <v>330.7985419591424</v>
       </c>
       <c r="Y13" t="n">
-        <v>243.0530345658276</v>
+        <v>243.0530345658271</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>581.0663979851759</v>
+        <v>520.3410671603044</v>
       </c>
       <c r="C14" t="n">
-        <v>581.0663979851759</v>
+        <v>520.3410671603044</v>
       </c>
       <c r="D14" t="n">
-        <v>581.0663979851759</v>
+        <v>295.1224403037686</v>
       </c>
       <c r="E14" t="n">
-        <v>581.0663979851759</v>
+        <v>295.1224403037686</v>
       </c>
       <c r="F14" t="n">
-        <v>581.0663979851759</v>
+        <v>295.1224403037686</v>
       </c>
       <c r="G14" t="n">
-        <v>295.1224403037687</v>
+        <v>295.1224403037686</v>
       </c>
       <c r="H14" t="n">
-        <v>90.45476164608228</v>
+        <v>90.4547616460823</v>
       </c>
       <c r="I14" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J14" t="n">
-        <v>60.75260108020954</v>
+        <v>60.75260108020956</v>
       </c>
       <c r="K14" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326557</v>
       </c>
       <c r="L14" t="n">
         <v>485.3806706550283</v>
       </c>
       <c r="M14" t="n">
-        <v>789.5552979241022</v>
+        <v>789.5552979241023</v>
       </c>
       <c r="N14" t="n">
         <v>1084.019791121359</v>
@@ -5294,7 +5294,7 @@
         <v>1316.886624186929</v>
       </c>
       <c r="P14" t="n">
-        <v>1477.958695736266</v>
+        <v>1477.958695736267</v>
       </c>
       <c r="Q14" t="n">
         <v>1521.6953536967</v>
@@ -5312,16 +5312,16 @@
         <v>1244.275983741029</v>
       </c>
       <c r="V14" t="n">
-        <v>1046.260168147673</v>
+        <v>1234.034105504976</v>
       </c>
       <c r="W14" t="n">
-        <v>1046.260168147673</v>
+        <v>1014.312521985077</v>
       </c>
       <c r="X14" t="n">
-        <v>1046.260168147673</v>
+        <v>773.8938354742115</v>
       </c>
       <c r="Y14" t="n">
-        <v>834.619166299083</v>
+        <v>773.8938354742115</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>531.9589404134712</v>
+        <v>132.817725162827</v>
       </c>
       <c r="C15" t="n">
-        <v>357.5059111323441</v>
+        <v>91.41176763191471</v>
       </c>
       <c r="D15" t="n">
-        <v>208.5715014710929</v>
+        <v>75.52442972087819</v>
       </c>
       <c r="E15" t="n">
-        <v>49.33404646563736</v>
+        <v>49.33404646563742</v>
       </c>
       <c r="F15" t="n">
-        <v>35.8465602427371</v>
+        <v>35.84656024273713</v>
       </c>
       <c r="G15" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H15" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I15" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J15" t="n">
-        <v>54.7981338372213</v>
+        <v>30.433907073934</v>
       </c>
       <c r="K15" t="n">
-        <v>223.0613211674321</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="L15" t="n">
-        <v>510.7163377867617</v>
+        <v>486.3521110234744</v>
       </c>
       <c r="M15" t="n">
-        <v>887.3359378266948</v>
+        <v>862.9717110634076</v>
       </c>
       <c r="N15" t="n">
-        <v>1263.955537866628</v>
+        <v>1239.591311103341</v>
       </c>
       <c r="O15" t="n">
-        <v>1521.6953536967</v>
+        <v>1239.591311103341</v>
       </c>
       <c r="P15" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q15" t="n">
         <v>1521.6953536967</v>
       </c>
       <c r="R15" t="n">
-        <v>1521.6953536967</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S15" t="n">
-        <v>1369.239834704257</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="T15" t="n">
-        <v>1168.145965317404</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="U15" t="n">
-        <v>1072.987254363111</v>
+        <v>972.723483856742</v>
       </c>
       <c r="V15" t="n">
-        <v>837.8351461313684</v>
+        <v>737.5713756249993</v>
       </c>
       <c r="W15" t="n">
-        <v>716.6448611533816</v>
+        <v>483.3340188967977</v>
       </c>
       <c r="X15" t="n">
-        <v>641.8404326980635</v>
+        <v>375.7462891976342</v>
       </c>
       <c r="Y15" t="n">
-        <v>567.1272056833244</v>
+        <v>167.9859904326803</v>
       </c>
     </row>
     <row r="16">
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.4516414858026</v>
+        <v>194.4516414858028</v>
       </c>
       <c r="C16" t="n">
-        <v>158.5625303081105</v>
+        <v>158.5625303081107</v>
       </c>
       <c r="D16" t="n">
-        <v>141.4929626459895</v>
+        <v>141.4929626459897</v>
       </c>
       <c r="E16" t="n">
-        <v>126.6269408138112</v>
+        <v>126.6269408138113</v>
       </c>
       <c r="F16" t="n">
-        <v>112.7840650661156</v>
+        <v>112.7840650661157</v>
       </c>
       <c r="G16" t="n">
-        <v>76.37056042946783</v>
+        <v>76.3705604294679</v>
       </c>
       <c r="H16" t="n">
-        <v>47.57254097184303</v>
+        <v>47.57254097184307</v>
       </c>
       <c r="I16" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J16" t="n">
-        <v>84.15679020220479</v>
+        <v>69.24603200060884</v>
       </c>
       <c r="K16" t="n">
-        <v>218.3899330701335</v>
+        <v>203.4791748685375</v>
       </c>
       <c r="L16" t="n">
-        <v>409.2216288383615</v>
+        <v>394.3108706367656</v>
       </c>
       <c r="M16" t="n">
-        <v>483.3280976611676</v>
+        <v>598.8167744819572</v>
       </c>
       <c r="N16" t="n">
-        <v>676.5957735341119</v>
+        <v>676.5957735341121</v>
       </c>
       <c r="O16" t="n">
-        <v>862.8204075624643</v>
+        <v>862.8204075624645</v>
       </c>
       <c r="P16" t="n">
         <v>1017.467262206714</v>
@@ -5461,25 +5461,25 @@
         <v>1045.40151661731</v>
       </c>
       <c r="S16" t="n">
-        <v>956.1300939856987</v>
+        <v>956.1300939856991</v>
       </c>
       <c r="T16" t="n">
-        <v>859.9002076877731</v>
+        <v>859.9002076877734</v>
       </c>
       <c r="U16" t="n">
-        <v>703.7485358493634</v>
+        <v>703.7485358493637</v>
       </c>
       <c r="V16" t="n">
-        <v>582.1111193936913</v>
+        <v>582.1111193936916</v>
       </c>
       <c r="W16" t="n">
-        <v>425.7410211069455</v>
+        <v>425.7410211069458</v>
       </c>
       <c r="X16" t="n">
-        <v>330.7985419591429</v>
+        <v>330.7985419591432</v>
       </c>
       <c r="Y16" t="n">
-        <v>243.0530345658276</v>
+        <v>243.0530345658278</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>872.4784887810897</v>
+        <v>872.4784887810906</v>
       </c>
       <c r="C17" t="n">
-        <v>743.2932336852416</v>
+        <v>743.2932336852425</v>
       </c>
       <c r="D17" t="n">
-        <v>624.8047969230547</v>
+        <v>624.8047969230556</v>
       </c>
       <c r="E17" t="n">
-        <v>478.793806169374</v>
+        <v>478.7938061693749</v>
       </c>
       <c r="F17" t="n">
-        <v>307.58516322433</v>
+        <v>307.5851632243298</v>
       </c>
       <c r="G17" t="n">
-        <v>128.3713956372717</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H17" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I17" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J17" t="n">
-        <v>60.75260108020962</v>
+        <v>60.75260108020984</v>
       </c>
       <c r="K17" t="n">
-        <v>226.9372683326558</v>
+        <v>226.937268332656</v>
       </c>
       <c r="L17" t="n">
-        <v>485.3806706550286</v>
+        <v>485.3806706550287</v>
       </c>
       <c r="M17" t="n">
-        <v>789.5552979241025</v>
+        <v>789.5552979241027</v>
       </c>
       <c r="N17" t="n">
-        <v>1084.019791121359</v>
+        <v>1084.01979112136</v>
       </c>
       <c r="O17" t="n">
-        <v>1316.886624186929</v>
+        <v>1316.88662418693</v>
       </c>
       <c r="P17" t="n">
-        <v>1477.958695736266</v>
+        <v>1477.958695736267</v>
       </c>
       <c r="Q17" t="n">
         <v>1521.6953536967</v>
@@ -5546,19 +5546,19 @@
         <v>1521.6953536967</v>
       </c>
       <c r="U17" t="n">
-        <v>1507.62865247297</v>
+        <v>1507.628652472971</v>
       </c>
       <c r="V17" t="n">
-        <v>1416.343026973963</v>
+        <v>1416.343026973964</v>
       </c>
       <c r="W17" t="n">
-        <v>1303.351633548412</v>
+        <v>1303.351633548413</v>
       </c>
       <c r="X17" t="n">
-        <v>1169.663137131896</v>
+        <v>1169.663137131897</v>
       </c>
       <c r="Y17" t="n">
-        <v>1019.301067000648</v>
+        <v>1019.301067000649</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>702.375511395294</v>
+        <v>179.3683167351853</v>
       </c>
       <c r="C18" t="n">
-        <v>527.922482114167</v>
+        <v>179.3683167351853</v>
       </c>
       <c r="D18" t="n">
-        <v>527.922482114167</v>
+        <v>30.433907073934</v>
       </c>
       <c r="E18" t="n">
-        <v>368.6850271087115</v>
+        <v>30.433907073934</v>
       </c>
       <c r="F18" t="n">
-        <v>222.1504691355965</v>
+        <v>30.433907073934</v>
       </c>
       <c r="G18" t="n">
-        <v>222.1504691355965</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H18" t="n">
-        <v>111.399593619506</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I18" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J18" t="n">
         <v>54.7981338372213</v>
@@ -5598,19 +5598,19 @@
         <v>223.0613211674321</v>
       </c>
       <c r="L18" t="n">
-        <v>510.7163377867617</v>
+        <v>496.4109802811683</v>
       </c>
       <c r="M18" t="n">
-        <v>887.3359378266948</v>
+        <v>873.0305803211015</v>
       </c>
       <c r="N18" t="n">
-        <v>976.342225401374</v>
+        <v>873.0305803211015</v>
       </c>
       <c r="O18" t="n">
-        <v>1288.313760533885</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P18" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q18" t="n">
         <v>1521.6953536967</v>
@@ -5622,22 +5622,22 @@
         <v>1268.976064197888</v>
       </c>
       <c r="T18" t="n">
-        <v>1268.976064197888</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="U18" t="n">
-        <v>1268.976064197888</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="V18" t="n">
-        <v>1033.823955966145</v>
+        <v>1017.432809453942</v>
       </c>
       <c r="W18" t="n">
-        <v>910.2270116008268</v>
+        <v>763.1954527257401</v>
       </c>
       <c r="X18" t="n">
-        <v>702.375511395294</v>
+        <v>555.3439525202073</v>
       </c>
       <c r="Y18" t="n">
-        <v>702.375511395294</v>
+        <v>347.5836537552533</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="C19" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="D19" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="E19" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="F19" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="G19" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H19" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I19" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J19" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="K19" t="n">
-        <v>34.26761491947718</v>
+        <v>34.26761491947719</v>
       </c>
       <c r="L19" t="n">
-        <v>94.69987566531979</v>
+        <v>94.69987566531981</v>
       </c>
       <c r="M19" t="n">
         <v>168.8063444881259</v>
@@ -5704,19 +5704,19 @@
         <v>326.6579621681117</v>
       </c>
       <c r="U19" t="n">
-        <v>277.2364804240507</v>
+        <v>277.2364804240508</v>
       </c>
       <c r="V19" t="n">
-        <v>262.3292540627273</v>
+        <v>80.07381526633102</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6893458703302</v>
+        <v>30.433907073934</v>
       </c>
       <c r="X19" t="n">
-        <v>212.6893458703302</v>
+        <v>30.433907073934</v>
       </c>
       <c r="Y19" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>872.4784887810897</v>
+        <v>872.4784887810902</v>
       </c>
       <c r="C20" t="n">
-        <v>743.2932336852416</v>
+        <v>743.2932336852421</v>
       </c>
       <c r="D20" t="n">
-        <v>624.8047969230547</v>
+        <v>624.8047969230552</v>
       </c>
       <c r="E20" t="n">
-        <v>478.793806169374</v>
+        <v>478.7938061693745</v>
       </c>
       <c r="F20" t="n">
-        <v>307.58516322433</v>
+        <v>307.5851632243306</v>
       </c>
       <c r="G20" t="n">
-        <v>128.3713956372717</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H20" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I20" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J20" t="n">
-        <v>60.75260108020954</v>
+        <v>60.75260108020956</v>
       </c>
       <c r="K20" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326557</v>
       </c>
       <c r="L20" t="n">
         <v>485.3806706550283</v>
       </c>
       <c r="M20" t="n">
-        <v>789.5552979241022</v>
+        <v>789.5552979241023</v>
       </c>
       <c r="N20" t="n">
         <v>1084.019791121359</v>
@@ -5768,7 +5768,7 @@
         <v>1316.886624186929</v>
       </c>
       <c r="P20" t="n">
-        <v>1477.958695736266</v>
+        <v>1477.958695736267</v>
       </c>
       <c r="Q20" t="n">
         <v>1521.6953536967</v>
@@ -5789,10 +5789,10 @@
         <v>1416.343026973963</v>
       </c>
       <c r="W20" t="n">
-        <v>1303.351633548412</v>
+        <v>1303.351633548413</v>
       </c>
       <c r="X20" t="n">
-        <v>1169.663137131896</v>
+        <v>1169.663137131897</v>
       </c>
       <c r="Y20" t="n">
         <v>1019.301067000648</v>
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>409.0967735439793</v>
+        <v>202.42589262549</v>
       </c>
       <c r="C21" t="n">
-        <v>409.0967735439793</v>
+        <v>202.42589262549</v>
       </c>
       <c r="D21" t="n">
-        <v>409.0967735439793</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="E21" t="n">
-        <v>249.8593185385238</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="F21" t="n">
-        <v>249.8593185385238</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="G21" t="n">
-        <v>111.399593619506</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H21" t="n">
-        <v>111.399593619506</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I21" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J21" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="K21" t="n">
-        <v>198.6970944041448</v>
+        <v>30.433907073934</v>
       </c>
       <c r="L21" t="n">
-        <v>486.3521110234744</v>
+        <v>318.0889236932636</v>
       </c>
       <c r="M21" t="n">
-        <v>808.3825154136796</v>
+        <v>694.7085237331968</v>
       </c>
       <c r="N21" t="n">
-        <v>1185.002115453613</v>
+        <v>873.0305803211015</v>
       </c>
       <c r="O21" t="n">
         <v>1185.002115453613</v>
@@ -5853,28 +5853,28 @@
         <v>1521.6953536967</v>
       </c>
       <c r="R21" t="n">
-        <v>1521.6953536967</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S21" t="n">
-        <v>1353.313582000801</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="T21" t="n">
-        <v>1152.219712613948</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="U21" t="n">
-        <v>1152.219712613948</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="V21" t="n">
-        <v>917.0676043822057</v>
+        <v>832.7300865792924</v>
       </c>
       <c r="W21" t="n">
-        <v>824.7085725144661</v>
+        <v>578.4927298510909</v>
       </c>
       <c r="X21" t="n">
-        <v>616.8570723089333</v>
+        <v>370.641229645558</v>
       </c>
       <c r="Y21" t="n">
-        <v>409.0967735439793</v>
+        <v>370.641229645558</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="C22" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="D22" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="E22" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="F22" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="G22" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H22" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I22" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J22" t="n">
-        <v>30.43390707393399</v>
+        <v>30.433907073934</v>
       </c>
       <c r="K22" t="n">
-        <v>34.26761491947718</v>
+        <v>34.26761491947719</v>
       </c>
       <c r="L22" t="n">
-        <v>94.69987566531979</v>
+        <v>94.69987566531981</v>
       </c>
       <c r="M22" t="n">
         <v>168.8063444881259</v>
@@ -5941,19 +5941,19 @@
         <v>326.6579621681117</v>
       </c>
       <c r="U22" t="n">
-        <v>277.2364804240507</v>
+        <v>277.2364804240508</v>
       </c>
       <c r="V22" t="n">
-        <v>262.3292540627273</v>
+        <v>262.3292540627275</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6893458703302</v>
+        <v>212.6893458703305</v>
       </c>
       <c r="X22" t="n">
-        <v>212.6893458703302</v>
+        <v>212.6893458703305</v>
       </c>
       <c r="Y22" t="n">
-        <v>30.43390707393399</v>
+        <v>212.0823719041737</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>872.4784887810911</v>
+        <v>872.4784887810895</v>
       </c>
       <c r="C23" t="n">
-        <v>743.293233685243</v>
+        <v>743.2932336852414</v>
       </c>
       <c r="D23" t="n">
-        <v>624.8047969230561</v>
+        <v>624.8047969230545</v>
       </c>
       <c r="E23" t="n">
-        <v>478.7938061693754</v>
+        <v>478.7938061693739</v>
       </c>
       <c r="F23" t="n">
-        <v>307.5851632243314</v>
+        <v>307.5851632243299</v>
       </c>
       <c r="G23" t="n">
-        <v>128.3713956372717</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H23" t="n">
-        <v>30.43390707393402</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I23" t="n">
-        <v>30.43390707393402</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J23" t="n">
-        <v>60.75260108021098</v>
+        <v>60.75260108020956</v>
       </c>
       <c r="K23" t="n">
-        <v>226.937268332657</v>
+        <v>226.9372683326557</v>
       </c>
       <c r="L23" t="n">
-        <v>485.3806706550297</v>
+        <v>485.3806706550283</v>
       </c>
       <c r="M23" t="n">
-        <v>789.5552979241037</v>
+        <v>789.5552979241023</v>
       </c>
       <c r="N23" t="n">
-        <v>1084.01979112136</v>
+        <v>1084.019791121359</v>
       </c>
       <c r="O23" t="n">
-        <v>1316.88662418693</v>
+        <v>1316.886624186929</v>
       </c>
       <c r="P23" t="n">
-        <v>1477.958695736268</v>
+        <v>1477.958695736267</v>
       </c>
       <c r="Q23" t="n">
-        <v>1521.695353696701</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R23" t="n">
-        <v>1521.695353696701</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S23" t="n">
-        <v>1521.695353696701</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T23" t="n">
-        <v>1521.695353696701</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U23" t="n">
-        <v>1507.628652472971</v>
+        <v>1507.62865247297</v>
       </c>
       <c r="V23" t="n">
-        <v>1416.343026973964</v>
+        <v>1416.343026973963</v>
       </c>
       <c r="W23" t="n">
-        <v>1303.351633548414</v>
+        <v>1303.351633548412</v>
       </c>
       <c r="X23" t="n">
-        <v>1169.663137131897</v>
+        <v>1169.663137131896</v>
       </c>
       <c r="Y23" t="n">
-        <v>1019.301067000649</v>
+        <v>1019.301067000648</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>683.6308609779446</v>
+        <v>204.886936355061</v>
       </c>
       <c r="C24" t="n">
-        <v>509.1778316968176</v>
+        <v>30.433907073934</v>
       </c>
       <c r="D24" t="n">
-        <v>360.2434220355664</v>
+        <v>30.433907073934</v>
       </c>
       <c r="E24" t="n">
-        <v>201.0059670301109</v>
+        <v>30.433907073934</v>
       </c>
       <c r="F24" t="n">
-        <v>54.47140905699584</v>
+        <v>30.433907073934</v>
       </c>
       <c r="G24" t="n">
-        <v>30.43390707393402</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H24" t="n">
-        <v>30.43390707393402</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I24" t="n">
-        <v>30.43390707393402</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J24" t="n">
-        <v>30.43390707393402</v>
+        <v>54.7981338372213</v>
       </c>
       <c r="K24" t="n">
-        <v>198.6970944041448</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L24" t="n">
-        <v>486.3521110234744</v>
+        <v>510.7163377867617</v>
       </c>
       <c r="M24" t="n">
-        <v>496.4109802811691</v>
+        <v>887.3359378266949</v>
       </c>
       <c r="N24" t="n">
-        <v>873.0305803211027</v>
+        <v>887.3359378266949</v>
       </c>
       <c r="O24" t="n">
-        <v>1185.002115453614</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P24" t="n">
-        <v>1418.383708616428</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q24" t="n">
-        <v>1521.695353696701</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R24" t="n">
-        <v>1521.695353696701</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S24" t="n">
-        <v>1521.695353696701</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="T24" t="n">
-        <v>1521.695353696701</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="U24" t="n">
-        <v>1521.695353696701</v>
+        <v>839.6764121065272</v>
       </c>
       <c r="V24" t="n">
-        <v>1521.695353696701</v>
+        <v>604.5243038747844</v>
       </c>
       <c r="W24" t="n">
-        <v>1267.457996968499</v>
+        <v>350.2869471465828</v>
       </c>
       <c r="X24" t="n">
-        <v>1059.606496762967</v>
+        <v>204.886936355061</v>
       </c>
       <c r="Y24" t="n">
-        <v>851.8461979980127</v>
+        <v>204.886936355061</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>30.43390707393402</v>
+        <v>30.433907073934</v>
       </c>
       <c r="C25" t="n">
-        <v>30.43390707393402</v>
+        <v>30.433907073934</v>
       </c>
       <c r="D25" t="n">
-        <v>30.43390707393402</v>
+        <v>30.433907073934</v>
       </c>
       <c r="E25" t="n">
-        <v>30.43390707393402</v>
+        <v>30.433907073934</v>
       </c>
       <c r="F25" t="n">
-        <v>30.43390707393402</v>
+        <v>30.433907073934</v>
       </c>
       <c r="G25" t="n">
-        <v>30.43390707393402</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H25" t="n">
-        <v>30.43390707393402</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I25" t="n">
-        <v>30.43390707393402</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J25" t="n">
-        <v>30.43390707393402</v>
+        <v>30.433907073934</v>
       </c>
       <c r="K25" t="n">
-        <v>34.2676149194772</v>
+        <v>34.26761491947719</v>
       </c>
       <c r="L25" t="n">
         <v>94.69987566531981</v>
@@ -6166,31 +6166,31 @@
         <v>326.6579621681117</v>
       </c>
       <c r="Q25" t="n">
-        <v>258.6573258474539</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="R25" t="n">
-        <v>258.6573258474539</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="S25" t="n">
-        <v>258.6573258474539</v>
+        <v>144.4025233717152</v>
       </c>
       <c r="T25" t="n">
-        <v>144.4025233717154</v>
+        <v>144.4025233717152</v>
       </c>
       <c r="U25" t="n">
-        <v>94.98104162765443</v>
+        <v>94.98104162765431</v>
       </c>
       <c r="V25" t="n">
-        <v>80.0738152663311</v>
+        <v>80.07381526633102</v>
       </c>
       <c r="W25" t="n">
-        <v>30.43390707393402</v>
+        <v>30.433907073934</v>
       </c>
       <c r="X25" t="n">
-        <v>30.43390707393402</v>
+        <v>30.433907073934</v>
       </c>
       <c r="Y25" t="n">
-        <v>30.43390707393402</v>
+        <v>30.433907073934</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1468.184568607514</v>
+        <v>1468.184568607515</v>
       </c>
       <c r="C26" t="n">
-        <v>1250.781708514024</v>
+        <v>1250.781708514025</v>
       </c>
       <c r="D26" t="n">
         <v>1044.075666754195</v>
       </c>
       <c r="E26" t="n">
-        <v>809.8470710028719</v>
+        <v>809.8470710028723</v>
       </c>
       <c r="F26" t="n">
-        <v>550.4208230601854</v>
+        <v>550.420823060186</v>
       </c>
       <c r="G26" t="n">
-        <v>282.9894504754848</v>
+        <v>282.9894504754852</v>
       </c>
       <c r="H26" t="n">
-        <v>96.83435691450495</v>
+        <v>96.83435691450498</v>
       </c>
       <c r="I26" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="J26" t="n">
         <v>234.1884011210062</v>
       </c>
       <c r="K26" t="n">
-        <v>548.9166880491197</v>
+        <v>548.9166880491198</v>
       </c>
       <c r="L26" t="n">
-        <v>955.9037100471598</v>
+        <v>955.90371004716</v>
       </c>
       <c r="M26" t="n">
         <v>1408.621956991901</v>
       </c>
       <c r="N26" t="n">
-        <v>1851.630069864825</v>
+        <v>1851.630069864826</v>
       </c>
       <c r="O26" t="n">
         <v>2233.040522606063</v>
@@ -6248,7 +6248,7 @@
         <v>2734.936491467169</v>
       </c>
       <c r="R26" t="n">
-        <v>2766.304371953158</v>
+        <v>2766.304371953159</v>
       </c>
       <c r="S26" t="n">
         <v>2718.278735061233</v>
@@ -6260,16 +6260,16 @@
         <v>2544.422757287607</v>
       </c>
       <c r="V26" t="n">
-        <v>2364.919526790957</v>
+        <v>2364.919526790958</v>
       </c>
       <c r="W26" t="n">
-        <v>2163.710528367764</v>
+        <v>2163.710528367765</v>
       </c>
       <c r="X26" t="n">
         <v>1941.804426953606</v>
       </c>
       <c r="Y26" t="n">
-        <v>1703.224751824715</v>
+        <v>1703.224751824716</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>765.451225905584</v>
+        <v>386.3913245399758</v>
       </c>
       <c r="C27" t="n">
-        <v>590.998196624457</v>
+        <v>363.49795210577</v>
       </c>
       <c r="D27" t="n">
-        <v>442.0637869632057</v>
+        <v>214.5635424445187</v>
       </c>
       <c r="E27" t="n">
-        <v>282.8263319577502</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="F27" t="n">
-        <v>136.2917739846351</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="G27" t="n">
-        <v>136.2917739846351</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="H27" t="n">
-        <v>136.2917739846351</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="I27" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="J27" t="n">
-        <v>79.69031420235046</v>
+        <v>79.69031420235049</v>
       </c>
       <c r="K27" t="n">
         <v>247.9535015325613</v>
@@ -6312,43 +6312,43 @@
         <v>535.6085181518908</v>
       </c>
       <c r="M27" t="n">
-        <v>923.2675763763534</v>
+        <v>923.2675763763535</v>
       </c>
       <c r="N27" t="n">
         <v>1336.893829743946</v>
       </c>
       <c r="O27" t="n">
-        <v>1648.865364876457</v>
+        <v>1648.865364876458</v>
       </c>
       <c r="P27" t="n">
-        <v>1882.246958039271</v>
+        <v>1882.246958039272</v>
       </c>
       <c r="Q27" t="n">
         <v>1985.558603119544</v>
       </c>
       <c r="R27" t="n">
-        <v>1985.558603119544</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S27" t="n">
-        <v>1964.848165253601</v>
+        <v>1884.398970467653</v>
       </c>
       <c r="T27" t="n">
-        <v>1763.754295866748</v>
+        <v>1683.305101080801</v>
       </c>
       <c r="U27" t="n">
-        <v>1535.548513162241</v>
+        <v>1455.099318376293</v>
       </c>
       <c r="V27" t="n">
-        <v>1300.396404930498</v>
+        <v>1219.94721014455</v>
       </c>
       <c r="W27" t="n">
-        <v>1046.159048202296</v>
+        <v>965.7098534163488</v>
       </c>
       <c r="X27" t="n">
-        <v>838.3075479967636</v>
+        <v>757.8583532108159</v>
       </c>
       <c r="Y27" t="n">
-        <v>782.1069060787308</v>
+        <v>550.0980544458621</v>
       </c>
     </row>
     <row r="28">
@@ -6376,28 +6376,28 @@
         <v>65.61152179998152</v>
       </c>
       <c r="H28" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="I28" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="J28" t="n">
-        <v>55.32608743906317</v>
+        <v>55.32608743906318</v>
       </c>
       <c r="K28" t="n">
-        <v>59.15979528460635</v>
+        <v>59.15979528460637</v>
       </c>
       <c r="L28" t="n">
-        <v>119.592056030449</v>
+        <v>200.536731587886</v>
       </c>
       <c r="M28" t="n">
-        <v>193.698524853255</v>
+        <v>274.6432004106921</v>
       </c>
       <c r="N28" t="n">
-        <v>352.4221994628469</v>
+        <v>500.9658191385145</v>
       </c>
       <c r="O28" t="n">
-        <v>556.7910181444813</v>
+        <v>705.3346378201488</v>
       </c>
       <c r="P28" t="n">
         <v>729.5820574420128</v>
@@ -6452,10 +6452,10 @@
         <v>550.4208230601851</v>
       </c>
       <c r="G29" t="n">
-        <v>282.9894504754848</v>
+        <v>282.9894504754843</v>
       </c>
       <c r="H29" t="n">
-        <v>96.83435691450501</v>
+        <v>96.83435691450497</v>
       </c>
       <c r="I29" t="n">
         <v>55.32608743906317</v>
@@ -6464,13 +6464,13 @@
         <v>234.1884011210063</v>
       </c>
       <c r="K29" t="n">
-        <v>548.9166880491198</v>
+        <v>548.9166880491199</v>
       </c>
       <c r="L29" t="n">
         <v>955.9037100471601</v>
       </c>
       <c r="M29" t="n">
-        <v>1408.621956991902</v>
+        <v>1408.621956991901</v>
       </c>
       <c r="N29" t="n">
         <v>1851.630069864826</v>
@@ -6488,10 +6488,10 @@
         <v>2766.304371953158</v>
       </c>
       <c r="S29" t="n">
-        <v>2718.278735061233</v>
+        <v>2718.278735061232</v>
       </c>
       <c r="T29" t="n">
-        <v>2646.707063508979</v>
+        <v>2646.707063508978</v>
       </c>
       <c r="U29" t="n">
         <v>2544.422757287606</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1014.661826340692</v>
+        <v>386.3913245399757</v>
       </c>
       <c r="C30" t="n">
-        <v>840.2087970595653</v>
+        <v>211.9382952588487</v>
       </c>
       <c r="D30" t="n">
-        <v>691.274387398314</v>
+        <v>63.00388559759745</v>
       </c>
       <c r="E30" t="n">
-        <v>532.0369323928586</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="F30" t="n">
-        <v>385.5023744197435</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="G30" t="n">
-        <v>247.0426495007256</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="H30" t="n">
-        <v>136.2917739846351</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I30" t="n">
         <v>55.32608743906317</v>
@@ -6549,43 +6549,43 @@
         <v>535.6085181518908</v>
       </c>
       <c r="M30" t="n">
-        <v>923.2675763763534</v>
+        <v>923.2675763763535</v>
       </c>
       <c r="N30" t="n">
         <v>1336.893829743946</v>
       </c>
       <c r="O30" t="n">
-        <v>1648.865364876457</v>
+        <v>1648.865364876458</v>
       </c>
       <c r="P30" t="n">
-        <v>1882.246958039271</v>
+        <v>1882.246958039272</v>
       </c>
       <c r="Q30" t="n">
         <v>1985.558603119544</v>
       </c>
       <c r="R30" t="n">
-        <v>1927.761566843845</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S30" t="n">
-        <v>1910.939451994867</v>
+        <v>1732.839313620732</v>
       </c>
       <c r="T30" t="n">
-        <v>1861.405239454936</v>
+        <v>1531.74544423388</v>
       </c>
       <c r="U30" t="n">
-        <v>1784.759113597349</v>
+        <v>1303.539661529372</v>
       </c>
       <c r="V30" t="n">
-        <v>1701.166662212527</v>
+        <v>1072.896160411811</v>
       </c>
       <c r="W30" t="n">
-        <v>1598.488962331247</v>
+        <v>970.2184605305304</v>
       </c>
       <c r="X30" t="n">
-        <v>1390.637462125714</v>
+        <v>762.3669603249975</v>
       </c>
       <c r="Y30" t="n">
-        <v>1182.87716336076</v>
+        <v>554.6066615600437</v>
       </c>
     </row>
     <row r="31">
@@ -6616,28 +6616,28 @@
         <v>55.32608743906317</v>
       </c>
       <c r="I31" t="n">
-        <v>56.67269700900451</v>
+        <v>56.67269700900452</v>
       </c>
       <c r="J31" t="n">
-        <v>128.5397647905573</v>
+        <v>56.67269700900452</v>
       </c>
       <c r="K31" t="n">
-        <v>132.3734726361005</v>
+        <v>60.50640485454771</v>
       </c>
       <c r="L31" t="n">
-        <v>192.8057333819431</v>
+        <v>269.4822852760578</v>
       </c>
       <c r="M31" t="n">
-        <v>274.643200410692</v>
+        <v>492.1323737745314</v>
       </c>
       <c r="N31" t="n">
-        <v>352.4221994628469</v>
+        <v>718.4549925023538</v>
       </c>
       <c r="O31" t="n">
-        <v>556.7910181444813</v>
+        <v>774.2801915083206</v>
       </c>
       <c r="P31" t="n">
-        <v>729.5820574420128</v>
+        <v>811.4782534598036</v>
       </c>
       <c r="Q31" t="n">
         <v>811.4782534598036</v>
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1468.184568607515</v>
+        <v>1468.184568607514</v>
       </c>
       <c r="C32" t="n">
         <v>1250.781708514024</v>
@@ -6686,19 +6686,19 @@
         <v>809.8470710028719</v>
       </c>
       <c r="F32" t="n">
-        <v>550.4208230601855</v>
+        <v>550.4208230601853</v>
       </c>
       <c r="G32" t="n">
-        <v>282.9894504754848</v>
+        <v>282.9894504754845</v>
       </c>
       <c r="H32" t="n">
-        <v>96.83435691450495</v>
+        <v>96.83435691450498</v>
       </c>
       <c r="I32" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J32" t="n">
-        <v>234.1884011210063</v>
+        <v>234.1884011210065</v>
       </c>
       <c r="K32" t="n">
         <v>548.91668804912</v>
@@ -6716,22 +6716,22 @@
         <v>2233.040522606063</v>
       </c>
       <c r="P32" t="n">
-        <v>2542.656213831067</v>
+        <v>2542.656213831068</v>
       </c>
       <c r="Q32" t="n">
-        <v>2734.936491467168</v>
+        <v>2734.936491467169</v>
       </c>
       <c r="R32" t="n">
         <v>2766.304371953158</v>
       </c>
       <c r="S32" t="n">
-        <v>2718.278735061232</v>
+        <v>2718.278735061233</v>
       </c>
       <c r="T32" t="n">
-        <v>2646.707063508978</v>
+        <v>2646.707063508979</v>
       </c>
       <c r="U32" t="n">
-        <v>2544.422757287606</v>
+        <v>2544.422757287607</v>
       </c>
       <c r="V32" t="n">
         <v>2364.919526790957</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>381.8827174257938</v>
+        <v>234.8316676930546</v>
       </c>
       <c r="C33" t="n">
-        <v>358.989344991588</v>
+        <v>211.9382952588487</v>
       </c>
       <c r="D33" t="n">
-        <v>210.0549353303368</v>
+        <v>63.00388559759747</v>
       </c>
       <c r="E33" t="n">
-        <v>202.3771371718025</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="F33" t="n">
-        <v>202.3771371718025</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="G33" t="n">
-        <v>136.2917739846351</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="H33" t="n">
-        <v>136.2917739846351</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I33" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J33" t="n">
         <v>79.69031420235046</v>
@@ -6786,16 +6786,16 @@
         <v>535.6085181518908</v>
       </c>
       <c r="M33" t="n">
-        <v>923.2675763763534</v>
+        <v>923.2675763763535</v>
       </c>
       <c r="N33" t="n">
         <v>1336.893829743946</v>
       </c>
       <c r="O33" t="n">
-        <v>1648.865364876457</v>
+        <v>1648.865364876458</v>
       </c>
       <c r="P33" t="n">
-        <v>1882.246958039271</v>
+        <v>1882.246958039272</v>
       </c>
       <c r="Q33" t="n">
         <v>1985.558603119544</v>
@@ -6804,25 +6804,25 @@
         <v>1901.221085316631</v>
       </c>
       <c r="S33" t="n">
-        <v>1732.839313620732</v>
+        <v>1737.347920734914</v>
       </c>
       <c r="T33" t="n">
-        <v>1683.305101080801</v>
+        <v>1536.254051348061</v>
       </c>
       <c r="U33" t="n">
-        <v>1455.099318376293</v>
+        <v>1308.048268643554</v>
       </c>
       <c r="V33" t="n">
-        <v>1219.94721014455</v>
+        <v>1072.896160411811</v>
       </c>
       <c r="W33" t="n">
-        <v>965.7098534163486</v>
+        <v>818.6588036836093</v>
       </c>
       <c r="X33" t="n">
-        <v>757.8583532108157</v>
+        <v>610.8073034780765</v>
       </c>
       <c r="Y33" t="n">
-        <v>550.0980544458619</v>
+        <v>403.0470047131226</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>91.32388724474153</v>
+        <v>95.9006693777074</v>
       </c>
       <c r="C34" t="n">
-        <v>73.94736116375587</v>
+        <v>78.52414329672169</v>
       </c>
       <c r="D34" t="n">
-        <v>75.36166255139315</v>
+        <v>79.93844468435891</v>
       </c>
       <c r="E34" t="n">
-        <v>78.93565920695718</v>
+        <v>83.51244133992289</v>
       </c>
       <c r="F34" t="n">
-        <v>83.51244133992276</v>
+        <v>83.51244133992289</v>
       </c>
       <c r="G34" t="n">
-        <v>65.61152179998147</v>
+        <v>65.61152179998155</v>
       </c>
       <c r="H34" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I34" t="n">
-        <v>56.67269700900453</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J34" t="n">
-        <v>56.67269700900453</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="K34" t="n">
-        <v>140.1044708420428</v>
+        <v>207.7034149602738</v>
       </c>
       <c r="L34" t="n">
-        <v>200.5367315878854</v>
+        <v>416.6792953817839</v>
       </c>
       <c r="M34" t="n">
-        <v>423.186820086359</v>
+        <v>639.3293838802574</v>
       </c>
       <c r="N34" t="n">
-        <v>500.9658191385139</v>
+        <v>717.1083829324124</v>
       </c>
       <c r="O34" t="n">
-        <v>705.3346378201483</v>
+        <v>772.9335819383792</v>
       </c>
       <c r="P34" t="n">
-        <v>729.5820574420122</v>
+        <v>797.1810015602432</v>
       </c>
       <c r="Q34" t="n">
-        <v>811.478253459803</v>
+        <v>816.0550355927694</v>
       </c>
       <c r="R34" t="n">
-        <v>794.1730816025968</v>
+        <v>798.7498637355631</v>
       </c>
       <c r="S34" t="n">
-        <v>723.4142440676923</v>
+        <v>727.9910262006584</v>
       </c>
       <c r="T34" t="n">
-        <v>645.6969428664731</v>
+        <v>650.2737249994393</v>
       </c>
       <c r="U34" t="n">
-        <v>508.0578561247698</v>
+        <v>512.634638257736</v>
       </c>
       <c r="V34" t="n">
-        <v>404.9330247658042</v>
+        <v>409.5098068987704</v>
       </c>
       <c r="W34" t="n">
-        <v>267.0755115757649</v>
+        <v>271.652293708731</v>
       </c>
       <c r="X34" t="n">
-        <v>190.6456175246688</v>
+        <v>195.2223996576348</v>
       </c>
       <c r="Y34" t="n">
-        <v>121.41269522806</v>
+        <v>125.9894773610259</v>
       </c>
     </row>
     <row r="35">
@@ -6914,10 +6914,10 @@
         <v>872.4784887810897</v>
       </c>
       <c r="C35" t="n">
-        <v>743.2932336852417</v>
+        <v>743.2932336852415</v>
       </c>
       <c r="D35" t="n">
-        <v>624.8047969230548</v>
+        <v>624.8047969230547</v>
       </c>
       <c r="E35" t="n">
         <v>478.7938061693742</v>
@@ -6938,13 +6938,13 @@
         <v>60.75260108020962</v>
       </c>
       <c r="K35" t="n">
-        <v>226.9372683326558</v>
+        <v>226.9372683326557</v>
       </c>
       <c r="L35" t="n">
-        <v>485.3806706550286</v>
+        <v>485.3806706550284</v>
       </c>
       <c r="M35" t="n">
-        <v>789.5552979241025</v>
+        <v>789.5552979241024</v>
       </c>
       <c r="N35" t="n">
         <v>1084.019791121359</v>
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>222.1504691355965</v>
+        <v>474.6656449715224</v>
       </c>
       <c r="C36" t="n">
-        <v>222.1504691355965</v>
+        <v>474.6656449715224</v>
       </c>
       <c r="D36" t="n">
-        <v>222.1504691355965</v>
+        <v>474.6656449715224</v>
       </c>
       <c r="E36" t="n">
-        <v>222.1504691355965</v>
+        <v>315.4281899660669</v>
       </c>
       <c r="F36" t="n">
-        <v>222.1504691355965</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="G36" t="n">
-        <v>222.1504691355965</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H36" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I36" t="n">
         <v>30.43390707393399</v>
       </c>
       <c r="J36" t="n">
-        <v>30.43390707393399</v>
+        <v>54.7981338372213</v>
       </c>
       <c r="K36" t="n">
-        <v>198.6970944041448</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L36" t="n">
-        <v>486.3521110234744</v>
+        <v>496.4109802811681</v>
       </c>
       <c r="M36" t="n">
-        <v>862.9717110634076</v>
+        <v>873.0305803211013</v>
       </c>
       <c r="N36" t="n">
-        <v>1209.723818564188</v>
+        <v>873.0305803211013</v>
       </c>
       <c r="O36" t="n">
-        <v>1521.6953536967</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P36" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q36" t="n">
         <v>1521.6953536967</v>
@@ -7041,25 +7041,25 @@
         <v>1521.6953536967</v>
       </c>
       <c r="S36" t="n">
-        <v>1521.6953536967</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="T36" t="n">
-        <v>1521.6953536967</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="U36" t="n">
-        <v>1295.367070086096</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="V36" t="n">
-        <v>1060.214961854353</v>
+        <v>1118.161473769058</v>
       </c>
       <c r="W36" t="n">
-        <v>805.9776051261513</v>
+        <v>863.9241170408568</v>
       </c>
       <c r="X36" t="n">
-        <v>598.1261049206184</v>
+        <v>850.6412807565443</v>
       </c>
       <c r="Y36" t="n">
-        <v>390.3658061556645</v>
+        <v>642.8809819915905</v>
       </c>
     </row>
     <row r="37">
@@ -7096,10 +7096,10 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K37" t="n">
-        <v>34.26761491947718</v>
+        <v>34.26761491947719</v>
       </c>
       <c r="L37" t="n">
-        <v>94.69987566531979</v>
+        <v>94.69987566531981</v>
       </c>
       <c r="M37" t="n">
         <v>168.8063444881259</v>
@@ -7123,13 +7123,13 @@
         <v>326.6579621681117</v>
       </c>
       <c r="T37" t="n">
-        <v>144.4025233717153</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="U37" t="n">
-        <v>94.98104162765436</v>
+        <v>277.2364804240508</v>
       </c>
       <c r="V37" t="n">
-        <v>80.07381526633105</v>
+        <v>262.3292540627275</v>
       </c>
       <c r="W37" t="n">
         <v>30.43390707393399</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>872.4784887810897</v>
+        <v>872.4784887810902</v>
       </c>
       <c r="C38" t="n">
-        <v>743.2932336852415</v>
+        <v>743.2932336852421</v>
       </c>
       <c r="D38" t="n">
-        <v>624.8047969230547</v>
+        <v>624.8047969230552</v>
       </c>
       <c r="E38" t="n">
-        <v>478.7938061693742</v>
+        <v>478.7938061693746</v>
       </c>
       <c r="F38" t="n">
-        <v>307.5851632243302</v>
+        <v>307.5851632243307</v>
       </c>
       <c r="G38" t="n">
-        <v>128.3713956372716</v>
+        <v>128.3713956372715</v>
       </c>
       <c r="H38" t="n">
         <v>30.43390707393399</v>
@@ -7181,7 +7181,7 @@
         <v>485.3806706550283</v>
       </c>
       <c r="M38" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241023</v>
       </c>
       <c r="N38" t="n">
         <v>1084.019791121359</v>
@@ -7211,7 +7211,7 @@
         <v>1416.343026973963</v>
       </c>
       <c r="W38" t="n">
-        <v>1303.351633548412</v>
+        <v>1303.351633548413</v>
       </c>
       <c r="X38" t="n">
         <v>1169.663137131896</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>989.7696459755631</v>
+        <v>363.9748002674566</v>
       </c>
       <c r="C39" t="n">
-        <v>815.3166166944361</v>
+        <v>189.5217709863296</v>
       </c>
       <c r="D39" t="n">
-        <v>666.3822070331848</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="E39" t="n">
-        <v>507.1447520277294</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="F39" t="n">
-        <v>360.6101940546143</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="G39" t="n">
-        <v>222.1504691355965</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H39" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I39" t="n">
         <v>30.43390707393399</v>
@@ -7254,49 +7254,49 @@
         <v>54.7981338372213</v>
       </c>
       <c r="K39" t="n">
-        <v>223.0613211674321</v>
+        <v>54.7981338372213</v>
       </c>
       <c r="L39" t="n">
-        <v>510.7163377867617</v>
+        <v>342.4531504565509</v>
       </c>
       <c r="M39" t="n">
-        <v>887.3359378266948</v>
+        <v>719.0727504964841</v>
       </c>
       <c r="N39" t="n">
-        <v>1209.723818564188</v>
+        <v>1095.692350536417</v>
       </c>
       <c r="O39" t="n">
-        <v>1521.6953536967</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P39" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q39" t="n">
         <v>1521.6953536967</v>
       </c>
       <c r="R39" t="n">
-        <v>1521.6953536967</v>
+        <v>1437.357835893786</v>
       </c>
       <c r="S39" t="n">
-        <v>1521.6953536967</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="T39" t="n">
-        <v>1521.6953536967</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="U39" t="n">
-        <v>1521.6953536967</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="V39" t="n">
-        <v>1521.6953536967</v>
+        <v>1033.823955966145</v>
       </c>
       <c r="W39" t="n">
-        <v>1507.235258813062</v>
+        <v>779.5865992379433</v>
       </c>
       <c r="X39" t="n">
-        <v>1365.745281760585</v>
+        <v>571.7350990324105</v>
       </c>
       <c r="Y39" t="n">
-        <v>1157.984982995631</v>
+        <v>363.9748002674566</v>
       </c>
     </row>
     <row r="40">
@@ -7333,10 +7333,10 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K40" t="n">
-        <v>34.26761491947718</v>
+        <v>34.26761491947719</v>
       </c>
       <c r="L40" t="n">
-        <v>94.69987566531979</v>
+        <v>94.69987566531981</v>
       </c>
       <c r="M40" t="n">
         <v>168.8063444881259</v>
@@ -7363,10 +7363,10 @@
         <v>326.6579621681117</v>
       </c>
       <c r="U40" t="n">
-        <v>277.2364804240507</v>
+        <v>277.2364804240509</v>
       </c>
       <c r="V40" t="n">
-        <v>80.07381526633105</v>
+        <v>80.07381526633097</v>
       </c>
       <c r="W40" t="n">
         <v>30.43390707393399</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>976.4306445829047</v>
+        <v>976.4306445829033</v>
       </c>
       <c r="C41" t="n">
-        <v>830.599456041668</v>
+        <v>830.5994560416666</v>
       </c>
       <c r="D41" t="n">
-        <v>695.4650858340924</v>
+        <v>695.4650858340913</v>
       </c>
       <c r="E41" t="n">
-        <v>532.8081616350232</v>
+        <v>532.8081616350222</v>
       </c>
       <c r="F41" t="n">
-        <v>344.9535852445907</v>
+        <v>344.9535852445897</v>
       </c>
       <c r="G41" t="n">
         <v>149.0938842121431</v>
       </c>
       <c r="H41" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I41" t="n">
-        <v>63.97560257890032</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="J41" t="n">
-        <v>94.29429658517587</v>
+        <v>64.82915620969246</v>
       </c>
       <c r="K41" t="n">
-        <v>260.4789638376219</v>
+        <v>231.0138234621385</v>
       </c>
       <c r="L41" t="n">
-        <v>564.6156827842331</v>
+        <v>489.4572257845112</v>
       </c>
       <c r="M41" t="n">
-        <v>868.7903100533071</v>
+        <v>793.6318530535852</v>
       </c>
       <c r="N41" t="n">
-        <v>1163.254803250564</v>
+        <v>1088.096346250842</v>
       </c>
       <c r="O41" t="n">
-        <v>1396.121636316134</v>
+        <v>1320.963179316412</v>
       </c>
       <c r="P41" t="n">
-        <v>1557.193707865471</v>
+        <v>1681.786452210411</v>
       </c>
       <c r="Q41" t="n">
-        <v>1600.930365825904</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="R41" t="n">
-        <v>1702.445641600258</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="S41" t="n">
-        <v>1725.523110170845</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="T41" t="n">
-        <v>1725.523110170845</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="U41" t="n">
-        <v>1694.810475501728</v>
+        <v>1694.810475501726</v>
       </c>
       <c r="V41" t="n">
-        <v>1586.878916557332</v>
+        <v>1586.878916557331</v>
       </c>
       <c r="W41" t="n">
-        <v>1457.241589686393</v>
+        <v>1457.241589686391</v>
       </c>
       <c r="X41" t="n">
-        <v>1306.907159824488</v>
+        <v>1306.907159824487</v>
       </c>
       <c r="Y41" t="n">
-        <v>1139.899156247852</v>
+        <v>1139.89915624785</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>504.4324591189102</v>
+        <v>653.8984842931136</v>
       </c>
       <c r="C42" t="n">
-        <v>329.9794298377832</v>
+        <v>479.4454550119866</v>
       </c>
       <c r="D42" t="n">
-        <v>181.0450201765319</v>
+        <v>340.2824751819874</v>
       </c>
       <c r="E42" t="n">
         <v>181.0450201765319</v>
       </c>
       <c r="F42" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="G42" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="H42" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I42" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="J42" t="n">
-        <v>58.87468896670421</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="K42" t="n">
-        <v>58.87468896670421</v>
+        <v>202.7736495336277</v>
       </c>
       <c r="L42" t="n">
-        <v>346.5297055860337</v>
+        <v>490.4286661529572</v>
       </c>
       <c r="M42" t="n">
-        <v>734.1887638104963</v>
+        <v>766.5437285079262</v>
       </c>
       <c r="N42" t="n">
-        <v>1147.815017178089</v>
+        <v>1180.169981875519</v>
       </c>
       <c r="O42" t="n">
-        <v>1459.7865523106</v>
+        <v>1492.14151700803</v>
       </c>
       <c r="P42" t="n">
-        <v>1693.168145473415</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="Q42" t="n">
-        <v>1725.523110170845</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="R42" t="n">
-        <v>1725.523110170845</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="S42" t="n">
-        <v>1725.523110170845</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="T42" t="n">
-        <v>1582.723514374742</v>
+        <v>1524.429240783992</v>
       </c>
       <c r="U42" t="n">
-        <v>1577.649060069409</v>
+        <v>1296.223458079484</v>
       </c>
       <c r="V42" t="n">
-        <v>1342.496951837667</v>
+        <v>1061.071349847741</v>
       </c>
       <c r="W42" t="n">
-        <v>1088.259595109465</v>
+        <v>1029.965321518715</v>
       </c>
       <c r="X42" t="n">
-        <v>880.4080949039321</v>
+        <v>822.1138213131817</v>
       </c>
       <c r="Y42" t="n">
-        <v>672.6477961389783</v>
+        <v>822.1138213131817</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="C43" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="D43" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="E43" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="F43" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="G43" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="H43" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I43" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="J43" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="K43" t="n">
-        <v>38.3441700489601</v>
+        <v>38.34417004896008</v>
       </c>
       <c r="L43" t="n">
         <v>98.77643079480271</v>
@@ -7579,40 +7579,40 @@
         <v>172.8828996176088</v>
       </c>
       <c r="N43" t="n">
-        <v>250.6618986697637</v>
+        <v>250.6618986697638</v>
       </c>
       <c r="O43" t="n">
         <v>306.4870976757306</v>
       </c>
       <c r="P43" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975947</v>
       </c>
       <c r="Q43" t="n">
-        <v>330.7345172975946</v>
+        <v>262.7338809769369</v>
       </c>
       <c r="R43" t="n">
-        <v>330.7345172975946</v>
+        <v>262.7338809769369</v>
       </c>
       <c r="S43" t="n">
-        <v>330.7345172975946</v>
+        <v>262.7338809769369</v>
       </c>
       <c r="T43" t="n">
-        <v>324.5888876486292</v>
+        <v>256.5882513279715</v>
       </c>
       <c r="U43" t="n">
-        <v>258.5214724591797</v>
+        <v>190.5208361385221</v>
       </c>
       <c r="V43" t="n">
-        <v>226.9683126524678</v>
+        <v>105.6545263400447</v>
       </c>
       <c r="W43" t="n">
-        <v>160.6824710146822</v>
+        <v>39.36868470225917</v>
       </c>
       <c r="X43" t="n">
-        <v>155.8242485158398</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>976.4306445829041</v>
+        <v>976.4306445829042</v>
       </c>
       <c r="C44" t="n">
         <v>830.5994560416675</v>
       </c>
       <c r="D44" t="n">
-        <v>695.465085834092</v>
+        <v>695.4650858340922</v>
       </c>
       <c r="E44" t="n">
         <v>532.8081616350229</v>
       </c>
       <c r="F44" t="n">
-        <v>344.9535852445903</v>
+        <v>344.9535852445904</v>
       </c>
       <c r="G44" t="n">
-        <v>149.0938842121431</v>
+        <v>149.093884212143</v>
       </c>
       <c r="H44" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I44" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="J44" t="n">
         <v>64.82915620969246</v>
@@ -7652,31 +7652,31 @@
         <v>231.0138234621385</v>
       </c>
       <c r="L44" t="n">
-        <v>564.6156827842331</v>
+        <v>489.4572257845112</v>
       </c>
       <c r="M44" t="n">
-        <v>868.7903100533071</v>
+        <v>793.6318530535852</v>
       </c>
       <c r="N44" t="n">
-        <v>1163.254803250564</v>
+        <v>1088.096346250842</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.121636316134</v>
+        <v>1320.963179316412</v>
       </c>
       <c r="P44" t="n">
-        <v>1557.193707865471</v>
+        <v>1557.19370786547</v>
       </c>
       <c r="Q44" t="n">
-        <v>1600.930365825904</v>
+        <v>1600.930365825903</v>
       </c>
       <c r="R44" t="n">
-        <v>1702.445641600258</v>
+        <v>1702.445641600257</v>
       </c>
       <c r="S44" t="n">
-        <v>1725.523110170845</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="T44" t="n">
-        <v>1725.523110170845</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="U44" t="n">
         <v>1694.810475501727</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>663.6699141243657</v>
+        <v>385.8993666006596</v>
       </c>
       <c r="C45" t="n">
-        <v>489.2168848432387</v>
+        <v>385.8993666006596</v>
       </c>
       <c r="D45" t="n">
-        <v>340.2824751819875</v>
+        <v>385.8993666006596</v>
       </c>
       <c r="E45" t="n">
-        <v>181.0450201765319</v>
+        <v>319.5047450955498</v>
       </c>
       <c r="F45" t="n">
-        <v>34.51046220341691</v>
+        <v>172.9701871224348</v>
       </c>
       <c r="G45" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="H45" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I45" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="J45" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="K45" t="n">
-        <v>91.22965366413513</v>
+        <v>202.7736495336277</v>
       </c>
       <c r="L45" t="n">
-        <v>378.8846702834647</v>
+        <v>275.5730252031908</v>
       </c>
       <c r="M45" t="n">
-        <v>766.5437285079273</v>
+        <v>663.2320834276535</v>
       </c>
       <c r="N45" t="n">
-        <v>1180.16998187552</v>
+        <v>1076.858336795246</v>
       </c>
       <c r="O45" t="n">
-        <v>1492.141517008031</v>
+        <v>1388.829871927757</v>
       </c>
       <c r="P45" t="n">
-        <v>1725.523110170845</v>
+        <v>1622.211465090572</v>
       </c>
       <c r="Q45" t="n">
-        <v>1725.523110170845</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="R45" t="n">
-        <v>1725.523110170845</v>
+        <v>1641.185592367931</v>
       </c>
       <c r="S45" t="n">
-        <v>1725.523110170845</v>
+        <v>1472.803820672032</v>
       </c>
       <c r="T45" t="n">
-        <v>1725.523110170845</v>
+        <v>1271.70995128518</v>
       </c>
       <c r="U45" t="n">
-        <v>1568.671178054797</v>
+        <v>1043.504168580672</v>
       </c>
       <c r="V45" t="n">
-        <v>1333.519069823054</v>
+        <v>808.3520603489292</v>
       </c>
       <c r="W45" t="n">
-        <v>1079.281713094852</v>
+        <v>554.1147036207276</v>
       </c>
       <c r="X45" t="n">
-        <v>871.4302128893196</v>
+        <v>554.1147036207276</v>
       </c>
       <c r="Y45" t="n">
-        <v>663.6699141243657</v>
+        <v>554.1147036207276</v>
       </c>
     </row>
     <row r="46">
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="C46" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="D46" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="E46" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="F46" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="G46" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="H46" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="I46" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="J46" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="K46" t="n">
-        <v>38.3441700489601</v>
+        <v>38.34417004896008</v>
       </c>
       <c r="L46" t="n">
         <v>98.77643079480271</v>
@@ -7816,40 +7816,40 @@
         <v>172.8828996176088</v>
       </c>
       <c r="N46" t="n">
-        <v>250.6618986697637</v>
+        <v>250.6618986697638</v>
       </c>
       <c r="O46" t="n">
         <v>306.4870976757306</v>
       </c>
       <c r="P46" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975947</v>
       </c>
       <c r="Q46" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975947</v>
       </c>
       <c r="R46" t="n">
-        <v>330.7345172975946</v>
+        <v>330.7345172975947</v>
       </c>
       <c r="S46" t="n">
-        <v>209.4207309851716</v>
+        <v>330.7345172975947</v>
       </c>
       <c r="T46" t="n">
-        <v>203.2751013362063</v>
+        <v>324.5888876486294</v>
       </c>
       <c r="U46" t="n">
-        <v>137.2076861467567</v>
+        <v>258.52147245918</v>
       </c>
       <c r="V46" t="n">
-        <v>105.6545263400449</v>
+        <v>226.9683126524682</v>
       </c>
       <c r="W46" t="n">
-        <v>39.36868470225925</v>
+        <v>39.36868470225914</v>
       </c>
       <c r="X46" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.51046220341691</v>
+        <v>34.51046220341689</v>
       </c>
     </row>
   </sheetData>
@@ -8708,7 +8708,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>94.50242152751716</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>440.1042398205827</v>
+        <v>254.253546945396</v>
       </c>
       <c r="N12" t="n">
-        <v>61.53807801265201</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9018,13 +9018,13 @@
         <v>441.9619164368269</v>
       </c>
       <c r="O15" t="n">
-        <v>339.0828048298205</v>
+        <v>78.73955651661683</v>
       </c>
       <c r="P15" t="n">
-        <v>82.72378564719551</v>
+        <v>263.3221669735454</v>
       </c>
       <c r="Q15" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,13 +9246,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>356.3904892372032</v>
       </c>
       <c r="M18" t="n">
-        <v>454.5540958868388</v>
+        <v>454.5540958868389</v>
       </c>
       <c r="N18" t="n">
-        <v>151.4434189971764</v>
+        <v>61.53807801265198</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9480,19 +9480,19 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>94.50242152751716</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>399.4134942204469</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N21" t="n">
-        <v>441.9619164368269</v>
+        <v>241.6613674953841</v>
       </c>
       <c r="O21" t="n">
-        <v>78.73955651661684</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720752</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,13 +9723,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>84.29073146033531</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N24" t="n">
-        <v>441.9619164368273</v>
+        <v>61.53807801265198</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>379.4124632104734</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>356.390489237203</v>
       </c>
       <c r="M36" t="n">
         <v>454.5540958868388</v>
       </c>
       <c r="N36" t="n">
-        <v>411.7927320538445</v>
+        <v>61.53807801265198</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>82.72378564719551</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>94.50242152751716</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,16 +10911,16 @@
         <v>454.5540958868388</v>
       </c>
       <c r="N39" t="n">
-        <v>387.182401989918</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>168.9514402713597</v>
       </c>
       <c r="P39" t="n">
-        <v>82.72378564719551</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K42" t="n">
-        <v>94.50242152751716</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>353.0343608515213</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>138.403873207726</v>
+        <v>105.7220906850686</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,10 +11376,10 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K45" t="n">
-        <v>151.7945341141012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>153.8144453542001</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.017240630768</v>
+        <v>251.0172406307679</v>
       </c>
       <c r="C11" t="n">
-        <v>233.5562907382949</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>222.9664405879703</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>245.0726706421375</v>
+        <v>245.797343292939</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>283.084518104593</v>
       </c>
       <c r="H11" t="n">
-        <v>202.6210018711096</v>
+        <v>202.6210018711095</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>59.42064602642672</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>89.1834140824707</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>217.5243676847003</v>
       </c>
       <c r="X11" t="n">
-        <v>238.0144996457564</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23495,19 +23495,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>233.5562907382949</v>
+        <v>233.556290738295</v>
       </c>
       <c r="D14" t="n">
-        <v>222.9664405879703</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>250.2137690395492</v>
       </c>
       <c r="F14" t="n">
-        <v>275.1594447089988</v>
+        <v>275.1594447089989</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>283.0845181045931</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>185.896197983731</v>
       </c>
       <c r="W14" t="n">
-        <v>217.5243676847004</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>238.0144996457564</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>44.99674579323721</v>
+        <v>254.521337623341</v>
       </c>
     </row>
     <row r="15">
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-5.053378189940796e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>430120.0778264452</v>
+      </c>
+      <c r="C2" t="n">
         <v>430120.0778264451</v>
       </c>
-      <c r="C2" t="n">
-        <v>430120.0778264452</v>
-      </c>
       <c r="D2" t="n">
-        <v>430120.077826445</v>
+        <v>430120.0778264451</v>
       </c>
       <c r="E2" t="n">
-        <v>369096.114361632</v>
+        <v>369096.1143616328</v>
       </c>
       <c r="F2" t="n">
-        <v>369096.1143616321</v>
+        <v>369096.1143616322</v>
       </c>
       <c r="G2" t="n">
         <v>431046.9291787486</v>
@@ -26335,25 +26335,25 @@
         <v>431046.9291787485</v>
       </c>
       <c r="J2" t="n">
-        <v>431046.9291787478</v>
+        <v>431046.9291787483</v>
       </c>
       <c r="K2" t="n">
-        <v>431046.9291787483</v>
+        <v>431046.9291787485</v>
       </c>
       <c r="L2" t="n">
-        <v>431046.9291787483</v>
+        <v>431046.9291787479</v>
       </c>
       <c r="M2" t="n">
         <v>431046.9291787486</v>
       </c>
       <c r="N2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787485</v>
       </c>
       <c r="O2" t="n">
         <v>431046.9291787484</v>
       </c>
       <c r="P2" t="n">
-        <v>431046.9291787485</v>
+        <v>431046.9291787486</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>84530.31055472423</v>
+        <v>84530.31055472429</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>116916.0581612105</v>
+        <v>116916.0581612106</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>84530.31055472424</v>
+        <v>84530.31055472427</v>
       </c>
       <c r="M3" t="n">
-        <v>87131.09894239518</v>
+        <v>87131.09894239523</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>34584.19673510455</v>
+        <v>34584.19673510446</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26451,7 +26451,7 @@
         <v>386434.3043956758</v>
       </c>
       <c r="N4" t="n">
-        <v>386434.3043956758</v>
+        <v>386434.3043956759</v>
       </c>
       <c r="O4" t="n">
         <v>385717.6584839226</v>
@@ -26476,22 +26476,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>36923.20336678313</v>
+        <v>36923.20336678314</v>
       </c>
       <c r="F5" t="n">
         <v>36923.20336678313</v>
       </c>
       <c r="G5" t="n">
-        <v>45806.17671431451</v>
+        <v>45806.17671431453</v>
       </c>
       <c r="H5" t="n">
-        <v>45806.17671431451</v>
+        <v>45806.17671431453</v>
       </c>
       <c r="I5" t="n">
-        <v>45806.17671431454</v>
+        <v>45806.17671431453</v>
       </c>
       <c r="J5" t="n">
-        <v>57382.03161561136</v>
+        <v>57382.03161561137</v>
       </c>
       <c r="K5" t="n">
         <v>57382.03161561136</v>
@@ -26503,13 +26503,13 @@
         <v>45806.17671431452</v>
       </c>
       <c r="N5" t="n">
-        <v>45806.17671431452</v>
+        <v>45806.17671431453</v>
       </c>
       <c r="O5" t="n">
-        <v>47518.94570368937</v>
+        <v>47518.94570368936</v>
       </c>
       <c r="P5" t="n">
-        <v>47518.94570368937</v>
+        <v>47518.94570368936</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-45156.77216937535</v>
+        <v>-45161.18574724341</v>
       </c>
       <c r="C6" t="n">
-        <v>-45156.77216937535</v>
+        <v>-45161.18574724352</v>
       </c>
       <c r="D6" t="n">
-        <v>-45156.77216937541</v>
+        <v>-45161.18574724346</v>
       </c>
       <c r="E6" t="n">
-        <v>-306351.3460179714</v>
+        <v>-306646.3498980522</v>
       </c>
       <c r="F6" t="n">
-        <v>12854.79890101895</v>
+        <v>12559.79502093768</v>
       </c>
       <c r="G6" t="n">
-        <v>-85723.86248596596</v>
+        <v>-85723.86248596603</v>
       </c>
       <c r="H6" t="n">
-        <v>-1193.551931241891</v>
+        <v>-1193.551931241847</v>
       </c>
       <c r="I6" t="n">
-        <v>-1193.551931241862</v>
+        <v>-1193.551931241847</v>
       </c>
       <c r="J6" t="n">
-        <v>-129064.0990800219</v>
+        <v>-129064.0990800215</v>
       </c>
       <c r="K6" t="n">
-        <v>-12148.04091881078</v>
+        <v>-12148.04091881061</v>
       </c>
       <c r="L6" t="n">
-        <v>-96678.35147353509</v>
+        <v>-96678.3514735355</v>
       </c>
       <c r="M6" t="n">
-        <v>-88324.65087363691</v>
+        <v>-88324.65087363697</v>
       </c>
       <c r="N6" t="n">
-        <v>-1193.551931241665</v>
+        <v>-1193.551931241964</v>
       </c>
       <c r="O6" t="n">
-        <v>-36773.87174396811</v>
+        <v>-36773.87174396799</v>
       </c>
       <c r="P6" t="n">
-        <v>-2189.675008863567</v>
+        <v>-2189.675008863444</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F2" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="G2" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H2" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I2" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="J2" t="n">
         <v>150.044060278452</v>
@@ -26719,13 +26719,13 @@
         <v>237.3794892261179</v>
       </c>
       <c r="N2" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="O2" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="P2" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
     </row>
     <row r="3">
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.423838424175</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.423838424175</v>
       </c>
       <c r="G4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.423838424175</v>
       </c>
       <c r="H4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.423838424175</v>
       </c>
       <c r="I4" t="n">
-        <v>380.4238384241752</v>
+        <v>380.423838424175</v>
       </c>
       <c r="J4" t="n">
-        <v>691.5760929882896</v>
+        <v>691.5760929882897</v>
       </c>
       <c r="K4" t="n">
         <v>691.5760929882896</v>
       </c>
       <c r="L4" t="n">
-        <v>691.5760929882895</v>
+        <v>691.5760929882896</v>
       </c>
       <c r="M4" t="n">
         <v>380.4238384241749</v>
@@ -26826,10 +26826,10 @@
         <v>380.4238384241749</v>
       </c>
       <c r="O4" t="n">
-        <v>431.3807775427114</v>
+        <v>431.3807775427111</v>
       </c>
       <c r="P4" t="n">
-        <v>431.3807775427114</v>
+        <v>431.3807775427111</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>105.6628881934053</v>
+        <v>105.6628881934054</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>105.6628881934053</v>
       </c>
       <c r="M2" t="n">
-        <v>87.33542894766589</v>
+        <v>87.33542894766595</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>27.90169797411204</v>
+        <v>27.90169797411201</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.423838424175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>311.1522545641143</v>
+        <v>311.1522545641147</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>69.27158386006033</v>
+        <v>69.27158386006028</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>50.95693911853647</v>
+        <v>50.95693911853618</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>105.6628881934053</v>
+        <v>105.6628881934054</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.423838424175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="C11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="D11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="E11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="G11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="H11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="I11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>118.359332514826</v>
       </c>
       <c r="S11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="T11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="U11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="V11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="W11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="X11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="Y11" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
     </row>
     <row r="12">
@@ -28166,10 +28166,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="C12" t="n">
-        <v>99.26113280130583</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -28178,10 +28178,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>15.76699017642106</v>
       </c>
       <c r="H12" t="n">
         <v>109.6433667609296</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="T12" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="U12" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="V12" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="C13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="D13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="E13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="F13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="G13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="H13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="J13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="K13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="L13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="N13" t="n">
-        <v>116.6552291119085</v>
+        <v>116.6552291119072</v>
       </c>
       <c r="O13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="P13" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="R13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="S13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="T13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="U13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="V13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="W13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="X13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.7166010327126</v>
+        <v>131.7166010327127</v>
       </c>
     </row>
     <row r="14">
@@ -28406,13 +28406,13 @@
         <v>131.7166010327126</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="F15" t="n">
         <v>131.7166010327126</v>
@@ -28451,10 +28451,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>15.76699017642144</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -28466,13 +28466,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>131.7166010327126</v>
+        <v>99.26113280130566</v>
       </c>
       <c r="Y15" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28506,7 +28506,7 @@
         <v>131.7166010327126</v>
       </c>
       <c r="J16" t="n">
-        <v>131.7166010327126</v>
+        <v>116.6552291119086</v>
       </c>
       <c r="K16" t="n">
         <v>131.7166010327126</v>
@@ -28515,10 +28515,10 @@
         <v>131.7166010327126</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="N16" t="n">
-        <v>116.6552291119085</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>131.7166010327126</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="C17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="D17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="E17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="F17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="G17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I17" t="n">
         <v>191.1372470591394</v>
@@ -28618,19 +28618,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="Y17" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
     </row>
     <row r="18">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.0751276698277</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28694,22 +28694,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9237248774628</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>182.8556956459028</v>
       </c>
       <c r="W18" t="n">
-        <v>129.3340082392547</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28743,7 +28743,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J19" t="n">
-        <v>77.45106251930778</v>
+        <v>77.45106251930777</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.32062995745123</v>
+        <v>67.32062995745122</v>
       </c>
       <c r="R19" t="n">
         <v>167.1761804170862</v>
@@ -28776,19 +28776,19 @@
         <v>226.984188467659</v>
       </c>
       <c r="U19" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V19" t="n">
-        <v>237.3794892261179</v>
+        <v>56.94660481768543</v>
       </c>
       <c r="W19" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>38.15176894366252</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="C20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="D20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="E20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="F20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="G20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I20" t="n">
         <v>191.1372470591394</v>
@@ -28855,19 +28855,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="Y20" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
     </row>
     <row r="21">
@@ -28877,16 +28877,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>114.248127538426</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -28898,7 +28898,7 @@
         <v>109.6433667609296</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28940,13 +28940,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>160.2595416118575</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -28980,7 +28980,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J22" t="n">
-        <v>77.45106251930778</v>
+        <v>77.45106251930777</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>67.32062995745123</v>
+        <v>67.32062995745122</v>
       </c>
       <c r="R22" t="n">
         <v>167.1761804170862</v>
@@ -29013,19 +29013,19 @@
         <v>226.984188467659</v>
       </c>
       <c r="U22" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V22" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W22" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>38.15176894366252</v>
+        <v>217.9837491255996</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="C23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="D23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="E23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="F23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="G23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I23" t="n">
         <v>191.1372470591394</v>
@@ -29092,19 +29092,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="Y23" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
     </row>
     <row r="24">
@@ -29114,22 +29114,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>113.2780007065965</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H24" t="n">
         <v>109.6433667609296</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>61.8269745198709</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -29217,7 +29217,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J25" t="n">
-        <v>77.45106251930778</v>
+        <v>77.45106251930777</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,25 +29238,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>67.32062995745122</v>
       </c>
       <c r="R25" t="n">
         <v>167.1761804170862</v>
       </c>
       <c r="S25" t="n">
-        <v>220.0953094380075</v>
+        <v>39.66242502957499</v>
       </c>
       <c r="T25" t="n">
-        <v>113.8719340166779</v>
+        <v>226.984188467659</v>
       </c>
       <c r="U25" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V25" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W25" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -29317,7 +29317,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.0440602784524</v>
+        <v>150.044060278452</v>
       </c>
       <c r="R26" t="n">
         <v>150.044060278452</v>
@@ -29351,11 +29351,11 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>4.46352104303989</v>
+      </c>
+      <c r="C27" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
@@ -29363,7 +29363,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.0751276698277</v>
@@ -29372,7 +29372,7 @@
         <v>109.6433667609296</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,10 +29399,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>146.1946204916561</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -29420,7 +29420,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29454,25 +29454,25 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J28" t="n">
-        <v>77.45106251930778</v>
+        <v>77.45106251930777</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>81.76229854286564</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>81.76229854286564</v>
+        <v>150.044060278452</v>
       </c>
       <c r="O28" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="P28" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>150.044060278452</v>
@@ -29597,19 +29597,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,19 +29636,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>26.27507671194179</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>150.044060278452</v>
+        <v>4.463521043039833</v>
       </c>
       <c r="W30" t="n">
         <v>150.044060278452</v>
@@ -29691,28 +29691,28 @@
         <v>150.044060278452</v>
       </c>
       <c r="J31" t="n">
+        <v>77.45106251930777</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
       <c r="M31" t="n">
-        <v>7.809089096912004</v>
+        <v>150.044060278452</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="O31" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>150.044060278452</v>
+        <v>13.08145689860499</v>
       </c>
       <c r="Q31" t="n">
-        <v>150.044060278452</v>
+        <v>67.32062995745122</v>
       </c>
       <c r="R31" t="n">
         <v>150.044060278452</v>
@@ -29770,7 +29770,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="J32" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784523</v>
       </c>
       <c r="K32" t="n">
         <v>150.044060278452</v>
@@ -29840,13 +29840,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>71.65061811453197</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H33" t="n">
         <v>109.6433667609296</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29876,10 +29876,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>4.463521043040089</v>
       </c>
       <c r="T33" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -29916,7 +29916,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="F34" t="n">
-        <v>150.044060278452</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>150.044060278452</v>
@@ -29925,16 +29925,16 @@
         <v>150.044060278452</v>
       </c>
       <c r="I34" t="n">
+        <v>148.6838485916426</v>
+      </c>
+      <c r="J34" t="n">
+        <v>77.45106251930777</v>
+      </c>
+      <c r="K34" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="J34" t="n">
-        <v>77.45106251930778</v>
-      </c>
-      <c r="K34" t="n">
-        <v>80.40208685605559</v>
-      </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="M34" t="n">
         <v>150.044060278452</v>
@@ -29943,13 +29943,13 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>150.044060278452</v>
+        <v>86.38531079838677</v>
       </c>
       <c r="R34" t="n">
         <v>150.044060278452</v>
@@ -30071,19 +30071,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30113,13 +30113,13 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S36" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U36" t="n">
-        <v>1.858724102964715</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30128,7 +30128,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>192.6229772820082</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30165,7 +30165,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J37" t="n">
-        <v>77.45106251930778</v>
+        <v>77.45106251930777</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.32062995745123</v>
+        <v>67.32062995745122</v>
       </c>
       <c r="R37" t="n">
         <v>167.1761804170862</v>
@@ -30195,7 +30195,7 @@
         <v>220.0953094380075</v>
       </c>
       <c r="T37" t="n">
-        <v>46.55130405922657</v>
+        <v>226.984188467659</v>
       </c>
       <c r="U37" t="n">
         <v>237.3794892261179</v>
@@ -30204,7 +30204,7 @@
         <v>237.3794892261179</v>
       </c>
       <c r="W37" t="n">
-        <v>237.3794892261179</v>
+        <v>56.94660481768545</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="C38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="D38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="E38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="F38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="G38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="H38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="I38" t="n">
         <v>191.1372470591394</v>
@@ -30277,19 +30277,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="W38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="Y38" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
     </row>
     <row r="39">
@@ -30299,28 +30299,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>127.0232079611948</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,10 +30347,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>199.0829306929842</v>
@@ -30359,13 +30359,13 @@
         <v>225.9237248774628</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>237.3794892261179</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>65.6979079215256</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J40" t="n">
-        <v>77.45106251930778</v>
+        <v>77.45106251930777</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.32062995745123</v>
+        <v>67.32062995745122</v>
       </c>
       <c r="R40" t="n">
         <v>167.1761804170862</v>
@@ -30435,13 +30435,13 @@
         <v>226.984188467659</v>
       </c>
       <c r="U40" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="V40" t="n">
-        <v>56.94660481768551</v>
+        <v>56.94660481768534</v>
       </c>
       <c r="W40" t="n">
-        <v>237.3794892261179</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="C41" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="D41" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="E41" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="F41" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="G41" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="H41" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="I41" t="n">
-        <v>220.9000151151832</v>
+        <v>191.1372470591394</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30487,7 +30487,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>46.15486527700858</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30499,34 +30499,34 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>201.7688902471331</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>220.9000151151832</v>
+        <v>118.359332514826</v>
       </c>
       <c r="S41" t="n">
-        <v>220.9000151151832</v>
+        <v>197.5894408014587</v>
       </c>
       <c r="T41" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="U41" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="V41" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="W41" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="X41" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="Y41" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
     </row>
     <row r="42">
@@ -30542,10 +30542,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>9.673715532939553</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -30590,22 +30590,22 @@
         <v>166.6979539789397</v>
       </c>
       <c r="T42" t="n">
-        <v>57.71133085484183</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>220.9000151151832</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -30639,7 +30639,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J43" t="n">
-        <v>77.45106251930778</v>
+        <v>77.45106251930777</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>67.32062995745123</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>167.1761804170862</v>
@@ -30669,22 +30669,22 @@
         <v>220.0953094380075</v>
       </c>
       <c r="T43" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="U43" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="V43" t="n">
-        <v>220.9000151151832</v>
+        <v>168.1199966233355</v>
       </c>
       <c r="W43" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="X43" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="Y43" t="n">
-        <v>98.48400490279612</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="C44" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="D44" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="E44" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="F44" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="G44" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="H44" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="I44" t="n">
         <v>191.1372470591394</v>
@@ -30724,7 +30724,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>75.91763333305244</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30736,34 +30736,34 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>75.9176333330511</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="S44" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="T44" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="U44" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="V44" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="W44" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="X44" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="Y44" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
     </row>
     <row r="45">
@@ -30773,22 +30773,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>91.91440516534225</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>109.6433667609296</v>
@@ -30821,16 +30821,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>70.64031208257444</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30839,10 +30839,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -30876,7 +30876,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J46" t="n">
-        <v>77.45106251930778</v>
+        <v>77.45106251930777</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,28 +30897,28 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.32062995745123</v>
+        <v>67.32062995745122</v>
       </c>
       <c r="R46" t="n">
         <v>167.1761804170862</v>
       </c>
       <c r="S46" t="n">
-        <v>99.99466098870876</v>
+        <v>220.0953094380075</v>
       </c>
       <c r="T46" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="U46" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="V46" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="W46" t="n">
-        <v>220.9000151151832</v>
+        <v>100.7993666658841</v>
       </c>
       <c r="X46" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H11" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944961</v>
       </c>
       <c r="I11" t="n">
         <v>19.33864251126652</v>
       </c>
       <c r="J11" t="n">
-        <v>42.57423279529489</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K11" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L11" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930721</v>
       </c>
       <c r="M11" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603013</v>
       </c>
       <c r="N11" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O11" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749708</v>
       </c>
       <c r="P11" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483468</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882062</v>
       </c>
       <c r="R11" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632373</v>
       </c>
       <c r="S11" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T11" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,46 +31832,46 @@
         <v>0.2683894933829464</v>
       </c>
       <c r="H12" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I12" t="n">
-        <v>9.240603171298813</v>
+        <v>9.240603171298815</v>
       </c>
       <c r="J12" t="n">
         <v>25.35692139018443</v>
       </c>
       <c r="K12" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L12" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422265</v>
       </c>
       <c r="M12" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N12" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068133</v>
       </c>
       <c r="O12" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782761</v>
       </c>
       <c r="P12" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R12" t="n">
         <v>16.66369152775873</v>
       </c>
       <c r="S12" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898147</v>
       </c>
       <c r="T12" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203596</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,43 +31911,43 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H13" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678409</v>
       </c>
       <c r="I13" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615719</v>
       </c>
       <c r="J13" t="n">
         <v>15.908117597365</v>
       </c>
       <c r="K13" t="n">
-        <v>26.14192399309819</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L13" t="n">
-        <v>33.45266236174711</v>
+        <v>33.45266236174712</v>
       </c>
       <c r="M13" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N13" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O13" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097739</v>
       </c>
       <c r="P13" t="n">
-        <v>27.21378378749439</v>
+        <v>27.2137837874944</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424316</v>
       </c>
       <c r="R13" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S13" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T13" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225472</v>
       </c>
       <c r="U13" t="n">
         <v>0.01227320375262828</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H14" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944961</v>
       </c>
       <c r="I14" t="n">
         <v>19.33864251126652</v>
       </c>
       <c r="J14" t="n">
-        <v>42.57423279529489</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K14" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L14" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930721</v>
       </c>
       <c r="M14" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603013</v>
       </c>
       <c r="N14" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O14" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749708</v>
       </c>
       <c r="P14" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483468</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882062</v>
       </c>
       <c r="R14" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632373</v>
       </c>
       <c r="S14" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T14" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,46 +32069,46 @@
         <v>0.2683894933829464</v>
       </c>
       <c r="H15" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I15" t="n">
-        <v>9.240603171298813</v>
+        <v>9.240603171298815</v>
       </c>
       <c r="J15" t="n">
         <v>25.35692139018443</v>
       </c>
       <c r="K15" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L15" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422265</v>
       </c>
       <c r="M15" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N15" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068133</v>
       </c>
       <c r="O15" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782761</v>
       </c>
       <c r="P15" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R15" t="n">
         <v>16.66369152775873</v>
       </c>
       <c r="S15" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898147</v>
       </c>
       <c r="T15" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203596</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,43 +32148,43 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H16" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678409</v>
       </c>
       <c r="I16" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615719</v>
       </c>
       <c r="J16" t="n">
         <v>15.908117597365</v>
       </c>
       <c r="K16" t="n">
-        <v>26.14192399309819</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L16" t="n">
-        <v>33.45266236174711</v>
+        <v>33.45266236174712</v>
       </c>
       <c r="M16" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N16" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O16" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097739</v>
       </c>
       <c r="P16" t="n">
-        <v>27.21378378749439</v>
+        <v>27.2137837874944</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424316</v>
       </c>
       <c r="R16" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S16" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T16" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225472</v>
       </c>
       <c r="U16" t="n">
         <v>0.01227320375262828</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H17" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944961</v>
       </c>
       <c r="I17" t="n">
         <v>19.33864251126652</v>
       </c>
       <c r="J17" t="n">
-        <v>42.57423279529489</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K17" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L17" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930721</v>
       </c>
       <c r="M17" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603013</v>
       </c>
       <c r="N17" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O17" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749708</v>
       </c>
       <c r="P17" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483468</v>
       </c>
       <c r="Q17" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882062</v>
       </c>
       <c r="R17" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632373</v>
       </c>
       <c r="S17" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T17" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,46 +32306,46 @@
         <v>0.2683894933829464</v>
       </c>
       <c r="H18" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I18" t="n">
-        <v>9.240603171298813</v>
+        <v>9.240603171298815</v>
       </c>
       <c r="J18" t="n">
         <v>25.35692139018443</v>
       </c>
       <c r="K18" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L18" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422265</v>
       </c>
       <c r="M18" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N18" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068133</v>
       </c>
       <c r="O18" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782761</v>
       </c>
       <c r="P18" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R18" t="n">
         <v>16.66369152775873</v>
       </c>
       <c r="S18" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898147</v>
       </c>
       <c r="T18" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203596</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,43 +32385,43 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H19" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678409</v>
       </c>
       <c r="I19" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615719</v>
       </c>
       <c r="J19" t="n">
         <v>15.908117597365</v>
       </c>
       <c r="K19" t="n">
-        <v>26.14192399309819</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L19" t="n">
-        <v>33.45266236174711</v>
+        <v>33.45266236174712</v>
       </c>
       <c r="M19" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N19" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O19" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097739</v>
       </c>
       <c r="P19" t="n">
-        <v>27.21378378749439</v>
+        <v>27.2137837874944</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424316</v>
       </c>
       <c r="R19" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S19" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T19" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225472</v>
       </c>
       <c r="U19" t="n">
         <v>0.01227320375262828</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H20" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944961</v>
       </c>
       <c r="I20" t="n">
         <v>19.33864251126652</v>
       </c>
       <c r="J20" t="n">
-        <v>42.57423279529489</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K20" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L20" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930721</v>
       </c>
       <c r="M20" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603013</v>
       </c>
       <c r="N20" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O20" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749708</v>
       </c>
       <c r="P20" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483468</v>
       </c>
       <c r="Q20" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882062</v>
       </c>
       <c r="R20" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632373</v>
       </c>
       <c r="S20" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T20" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,46 +32543,46 @@
         <v>0.2683894933829464</v>
       </c>
       <c r="H21" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I21" t="n">
-        <v>9.240603171298813</v>
+        <v>9.240603171298815</v>
       </c>
       <c r="J21" t="n">
         <v>25.35692139018443</v>
       </c>
       <c r="K21" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L21" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422265</v>
       </c>
       <c r="M21" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N21" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068133</v>
       </c>
       <c r="O21" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782761</v>
       </c>
       <c r="P21" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R21" t="n">
         <v>16.66369152775873</v>
       </c>
       <c r="S21" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898147</v>
       </c>
       <c r="T21" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203596</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,43 +32622,43 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H22" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678409</v>
       </c>
       <c r="I22" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615719</v>
       </c>
       <c r="J22" t="n">
         <v>15.908117597365</v>
       </c>
       <c r="K22" t="n">
-        <v>26.14192399309819</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L22" t="n">
-        <v>33.45266236174711</v>
+        <v>33.45266236174712</v>
       </c>
       <c r="M22" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N22" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O22" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097739</v>
       </c>
       <c r="P22" t="n">
-        <v>27.21378378749439</v>
+        <v>27.2137837874944</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424316</v>
       </c>
       <c r="R22" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S22" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T22" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225472</v>
       </c>
       <c r="U22" t="n">
         <v>0.01227320375262828</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H23" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944961</v>
       </c>
       <c r="I23" t="n">
         <v>19.33864251126652</v>
       </c>
       <c r="J23" t="n">
-        <v>42.57423279529489</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K23" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L23" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930721</v>
       </c>
       <c r="M23" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603013</v>
       </c>
       <c r="N23" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O23" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749708</v>
       </c>
       <c r="P23" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483468</v>
       </c>
       <c r="Q23" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882062</v>
       </c>
       <c r="R23" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632373</v>
       </c>
       <c r="S23" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T23" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,46 +32780,46 @@
         <v>0.2683894933829464</v>
       </c>
       <c r="H24" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I24" t="n">
-        <v>9.240603171298813</v>
+        <v>9.240603171298815</v>
       </c>
       <c r="J24" t="n">
         <v>25.35692139018443</v>
       </c>
       <c r="K24" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L24" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422265</v>
       </c>
       <c r="M24" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N24" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068133</v>
       </c>
       <c r="O24" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782761</v>
       </c>
       <c r="P24" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R24" t="n">
         <v>16.66369152775873</v>
       </c>
       <c r="S24" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898147</v>
       </c>
       <c r="T24" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203596</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,43 +32859,43 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H25" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678409</v>
       </c>
       <c r="I25" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615719</v>
       </c>
       <c r="J25" t="n">
         <v>15.908117597365</v>
       </c>
       <c r="K25" t="n">
-        <v>26.14192399309819</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L25" t="n">
-        <v>33.45266236174711</v>
+        <v>33.45266236174712</v>
       </c>
       <c r="M25" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N25" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O25" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097739</v>
       </c>
       <c r="P25" t="n">
-        <v>27.21378378749439</v>
+        <v>27.2137837874944</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424316</v>
       </c>
       <c r="R25" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S25" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T25" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225472</v>
       </c>
       <c r="U25" t="n">
         <v>0.01227320375262828</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H26" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944961</v>
       </c>
       <c r="I26" t="n">
         <v>19.33864251126652</v>
       </c>
       <c r="J26" t="n">
-        <v>42.57423279529489</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K26" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L26" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930721</v>
       </c>
       <c r="M26" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603013</v>
       </c>
       <c r="N26" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O26" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749708</v>
       </c>
       <c r="P26" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483468</v>
       </c>
       <c r="Q26" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882062</v>
       </c>
       <c r="R26" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632373</v>
       </c>
       <c r="S26" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T26" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,46 +33017,46 @@
         <v>0.2683894933829464</v>
       </c>
       <c r="H27" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I27" t="n">
-        <v>9.240603171298813</v>
+        <v>9.240603171298815</v>
       </c>
       <c r="J27" t="n">
         <v>25.35692139018443</v>
       </c>
       <c r="K27" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L27" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422265</v>
       </c>
       <c r="M27" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N27" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068133</v>
       </c>
       <c r="O27" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782761</v>
       </c>
       <c r="P27" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R27" t="n">
         <v>16.66369152775873</v>
       </c>
       <c r="S27" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898147</v>
       </c>
       <c r="T27" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203596</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,43 +33096,43 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H28" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678409</v>
       </c>
       <c r="I28" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615719</v>
       </c>
       <c r="J28" t="n">
         <v>15.908117597365</v>
       </c>
       <c r="K28" t="n">
-        <v>26.14192399309819</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L28" t="n">
-        <v>33.45266236174711</v>
+        <v>33.45266236174712</v>
       </c>
       <c r="M28" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N28" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O28" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097739</v>
       </c>
       <c r="P28" t="n">
-        <v>27.21378378749439</v>
+        <v>27.2137837874944</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424316</v>
       </c>
       <c r="R28" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S28" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T28" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225472</v>
       </c>
       <c r="U28" t="n">
         <v>0.01227320375262828</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H29" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944961</v>
       </c>
       <c r="I29" t="n">
         <v>19.33864251126652</v>
       </c>
       <c r="J29" t="n">
-        <v>42.57423279529489</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K29" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L29" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930721</v>
       </c>
       <c r="M29" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603013</v>
       </c>
       <c r="N29" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O29" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749708</v>
       </c>
       <c r="P29" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483468</v>
       </c>
       <c r="Q29" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882062</v>
       </c>
       <c r="R29" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632373</v>
       </c>
       <c r="S29" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T29" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,46 +33254,46 @@
         <v>0.2683894933829464</v>
       </c>
       <c r="H30" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I30" t="n">
-        <v>9.240603171298813</v>
+        <v>9.240603171298815</v>
       </c>
       <c r="J30" t="n">
         <v>25.35692139018443</v>
       </c>
       <c r="K30" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L30" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422265</v>
       </c>
       <c r="M30" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N30" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068133</v>
       </c>
       <c r="O30" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782761</v>
       </c>
       <c r="P30" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R30" t="n">
         <v>16.66369152775873</v>
       </c>
       <c r="S30" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898147</v>
       </c>
       <c r="T30" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203596</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,43 +33333,43 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H31" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678409</v>
       </c>
       <c r="I31" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615719</v>
       </c>
       <c r="J31" t="n">
         <v>15.908117597365</v>
       </c>
       <c r="K31" t="n">
-        <v>26.14192399309819</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L31" t="n">
-        <v>33.45266236174711</v>
+        <v>33.45266236174712</v>
       </c>
       <c r="M31" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N31" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O31" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097739</v>
       </c>
       <c r="P31" t="n">
-        <v>27.21378378749439</v>
+        <v>27.2137837874944</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424316</v>
       </c>
       <c r="R31" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S31" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T31" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225472</v>
       </c>
       <c r="U31" t="n">
         <v>0.01227320375262828</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H32" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944961</v>
       </c>
       <c r="I32" t="n">
         <v>19.33864251126652</v>
       </c>
       <c r="J32" t="n">
-        <v>42.57423279529489</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K32" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L32" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930721</v>
       </c>
       <c r="M32" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603013</v>
       </c>
       <c r="N32" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O32" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749708</v>
       </c>
       <c r="P32" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483468</v>
       </c>
       <c r="Q32" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882062</v>
       </c>
       <c r="R32" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632373</v>
       </c>
       <c r="S32" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T32" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,46 +33491,46 @@
         <v>0.2683894933829464</v>
       </c>
       <c r="H33" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I33" t="n">
-        <v>9.240603171298813</v>
+        <v>9.240603171298815</v>
       </c>
       <c r="J33" t="n">
         <v>25.35692139018443</v>
       </c>
       <c r="K33" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L33" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422265</v>
       </c>
       <c r="M33" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N33" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068133</v>
       </c>
       <c r="O33" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782761</v>
       </c>
       <c r="P33" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R33" t="n">
         <v>16.66369152775873</v>
       </c>
       <c r="S33" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898147</v>
       </c>
       <c r="T33" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203596</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,43 +33570,43 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H34" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678409</v>
       </c>
       <c r="I34" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615719</v>
       </c>
       <c r="J34" t="n">
         <v>15.908117597365</v>
       </c>
       <c r="K34" t="n">
-        <v>26.14192399309819</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L34" t="n">
-        <v>33.45266236174711</v>
+        <v>33.45266236174712</v>
       </c>
       <c r="M34" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N34" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O34" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097739</v>
       </c>
       <c r="P34" t="n">
-        <v>27.21378378749439</v>
+        <v>27.2137837874944</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424316</v>
       </c>
       <c r="R34" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S34" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T34" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225472</v>
       </c>
       <c r="U34" t="n">
         <v>0.01227320375262828</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H35" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944961</v>
       </c>
       <c r="I35" t="n">
         <v>19.33864251126652</v>
       </c>
       <c r="J35" t="n">
-        <v>42.57423279529489</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K35" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L35" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930721</v>
       </c>
       <c r="M35" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603013</v>
       </c>
       <c r="N35" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O35" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749708</v>
       </c>
       <c r="P35" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483468</v>
       </c>
       <c r="Q35" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882062</v>
       </c>
       <c r="R35" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632373</v>
       </c>
       <c r="S35" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T35" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,46 +33728,46 @@
         <v>0.2683894933829464</v>
       </c>
       <c r="H36" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I36" t="n">
-        <v>9.240603171298813</v>
+        <v>9.240603171298815</v>
       </c>
       <c r="J36" t="n">
         <v>25.35692139018443</v>
       </c>
       <c r="K36" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L36" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422265</v>
       </c>
       <c r="M36" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N36" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068133</v>
       </c>
       <c r="O36" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782761</v>
       </c>
       <c r="P36" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q36" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R36" t="n">
         <v>16.66369152775873</v>
       </c>
       <c r="S36" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898147</v>
       </c>
       <c r="T36" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203596</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,43 +33807,43 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H37" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678409</v>
       </c>
       <c r="I37" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615719</v>
       </c>
       <c r="J37" t="n">
         <v>15.908117597365</v>
       </c>
       <c r="K37" t="n">
-        <v>26.14192399309819</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L37" t="n">
-        <v>33.45266236174711</v>
+        <v>33.45266236174712</v>
       </c>
       <c r="M37" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N37" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O37" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097739</v>
       </c>
       <c r="P37" t="n">
-        <v>27.21378378749439</v>
+        <v>27.2137837874944</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424316</v>
       </c>
       <c r="R37" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S37" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T37" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225472</v>
       </c>
       <c r="U37" t="n">
         <v>0.01227320375262828</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H38" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944961</v>
       </c>
       <c r="I38" t="n">
         <v>19.33864251126652</v>
       </c>
       <c r="J38" t="n">
-        <v>42.57423279529489</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K38" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L38" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930721</v>
       </c>
       <c r="M38" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603013</v>
       </c>
       <c r="N38" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O38" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749708</v>
       </c>
       <c r="P38" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483468</v>
       </c>
       <c r="Q38" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882062</v>
       </c>
       <c r="R38" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632373</v>
       </c>
       <c r="S38" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T38" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,46 +33965,46 @@
         <v>0.2683894933829464</v>
       </c>
       <c r="H39" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I39" t="n">
-        <v>9.240603171298813</v>
+        <v>9.240603171298815</v>
       </c>
       <c r="J39" t="n">
         <v>25.35692139018443</v>
       </c>
       <c r="K39" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L39" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422265</v>
       </c>
       <c r="M39" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N39" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068133</v>
       </c>
       <c r="O39" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782761</v>
       </c>
       <c r="P39" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q39" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R39" t="n">
         <v>16.66369152775873</v>
       </c>
       <c r="S39" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898147</v>
       </c>
       <c r="T39" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203596</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,43 +34044,43 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H40" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678409</v>
       </c>
       <c r="I40" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615719</v>
       </c>
       <c r="J40" t="n">
         <v>15.908117597365</v>
       </c>
       <c r="K40" t="n">
-        <v>26.14192399309819</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L40" t="n">
-        <v>33.45266236174711</v>
+        <v>33.45266236174712</v>
       </c>
       <c r="M40" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N40" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O40" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097739</v>
       </c>
       <c r="P40" t="n">
-        <v>27.21378378749439</v>
+        <v>27.2137837874944</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424316</v>
       </c>
       <c r="R40" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S40" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T40" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225472</v>
       </c>
       <c r="U40" t="n">
         <v>0.01227320375262828</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H41" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944961</v>
       </c>
       <c r="I41" t="n">
         <v>19.33864251126652</v>
       </c>
       <c r="J41" t="n">
-        <v>42.57423279529489</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K41" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L41" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930721</v>
       </c>
       <c r="M41" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603013</v>
       </c>
       <c r="N41" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O41" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749708</v>
       </c>
       <c r="P41" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483468</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882062</v>
       </c>
       <c r="R41" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632373</v>
       </c>
       <c r="S41" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T41" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,46 +34202,46 @@
         <v>0.2683894933829464</v>
       </c>
       <c r="H42" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I42" t="n">
-        <v>9.240603171298813</v>
+        <v>9.240603171298815</v>
       </c>
       <c r="J42" t="n">
         <v>25.35692139018443</v>
       </c>
       <c r="K42" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L42" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422265</v>
       </c>
       <c r="M42" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N42" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068133</v>
       </c>
       <c r="O42" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782761</v>
       </c>
       <c r="P42" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R42" t="n">
         <v>16.66369152775873</v>
       </c>
       <c r="S42" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898147</v>
       </c>
       <c r="T42" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203596</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,43 +34281,43 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H43" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678409</v>
       </c>
       <c r="I43" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615719</v>
       </c>
       <c r="J43" t="n">
         <v>15.908117597365</v>
       </c>
       <c r="K43" t="n">
-        <v>26.14192399309819</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L43" t="n">
-        <v>33.45266236174711</v>
+        <v>33.45266236174712</v>
       </c>
       <c r="M43" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N43" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O43" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097739</v>
       </c>
       <c r="P43" t="n">
-        <v>27.21378378749439</v>
+        <v>27.2137837874944</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424316</v>
       </c>
       <c r="R43" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S43" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T43" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225472</v>
       </c>
       <c r="U43" t="n">
         <v>0.01227320375262828</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5016183778293625</v>
+        <v>0.5016183778293626</v>
       </c>
       <c r="H44" t="n">
-        <v>5.13719921194496</v>
+        <v>5.137199211944961</v>
       </c>
       <c r="I44" t="n">
         <v>19.33864251126652</v>
       </c>
       <c r="J44" t="n">
-        <v>42.57423279529489</v>
+        <v>42.5742327952949</v>
       </c>
       <c r="K44" t="n">
-        <v>63.80773872881182</v>
+        <v>63.80773872881183</v>
       </c>
       <c r="L44" t="n">
-        <v>79.15914215930719</v>
+        <v>79.15914215930721</v>
       </c>
       <c r="M44" t="n">
-        <v>88.0797979860301</v>
+        <v>88.07979798603013</v>
       </c>
       <c r="N44" t="n">
-        <v>89.5050212020378</v>
+        <v>89.50502120203781</v>
       </c>
       <c r="O44" t="n">
-        <v>84.51705345749707</v>
+        <v>84.51705345749708</v>
       </c>
       <c r="P44" t="n">
-        <v>72.13334975483467</v>
+        <v>72.13334975483468</v>
       </c>
       <c r="Q44" t="n">
-        <v>54.1691415988206</v>
+        <v>54.16914159882062</v>
       </c>
       <c r="R44" t="n">
-        <v>31.50978542632372</v>
+        <v>31.50978542632373</v>
       </c>
       <c r="S44" t="n">
         <v>11.43062878478661</v>
       </c>
       <c r="T44" t="n">
-        <v>2.195834448948035</v>
+        <v>2.195834448948036</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04012947022634899</v>
+        <v>0.040129470226349</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,46 +34439,46 @@
         <v>0.2683894933829464</v>
       </c>
       <c r="H45" t="n">
-        <v>2.592077475566877</v>
+        <v>2.592077475566878</v>
       </c>
       <c r="I45" t="n">
-        <v>9.240603171298813</v>
+        <v>9.240603171298815</v>
       </c>
       <c r="J45" t="n">
         <v>25.35692139018443</v>
       </c>
       <c r="K45" t="n">
-        <v>43.33901744684183</v>
+        <v>43.33901744684184</v>
       </c>
       <c r="L45" t="n">
-        <v>58.27465732422264</v>
+        <v>58.27465732422265</v>
       </c>
       <c r="M45" t="n">
-        <v>68.00377645935443</v>
+        <v>68.00377645935444</v>
       </c>
       <c r="N45" t="n">
-        <v>69.8036340706813</v>
+        <v>69.80363407068133</v>
       </c>
       <c r="O45" t="n">
-        <v>63.85668792782759</v>
+        <v>63.85668792782761</v>
       </c>
       <c r="P45" t="n">
-        <v>51.25062176713474</v>
+        <v>51.25062176713475</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.25968340095294</v>
+        <v>34.25968340095295</v>
       </c>
       <c r="R45" t="n">
         <v>16.66369152775873</v>
       </c>
       <c r="S45" t="n">
-        <v>4.985217124898146</v>
+        <v>4.985217124898147</v>
       </c>
       <c r="T45" t="n">
         <v>1.081798001837402</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01765720351203595</v>
+        <v>0.01765720351203596</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34518,43 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H46" t="n">
-        <v>2.000532211678408</v>
+        <v>2.000532211678409</v>
       </c>
       <c r="I46" t="n">
-        <v>6.766626335615717</v>
+        <v>6.766626335615719</v>
       </c>
       <c r="J46" t="n">
         <v>15.908117597365</v>
       </c>
       <c r="K46" t="n">
-        <v>26.14192399309819</v>
+        <v>26.1419239930982</v>
       </c>
       <c r="L46" t="n">
-        <v>33.45266236174711</v>
+        <v>33.45266236174712</v>
       </c>
       <c r="M46" t="n">
-        <v>35.27114205109485</v>
+        <v>35.27114205109486</v>
       </c>
       <c r="N46" t="n">
-        <v>34.43247312799861</v>
+        <v>34.43247312799862</v>
       </c>
       <c r="O46" t="n">
-        <v>31.80396199097738</v>
+        <v>31.80396199097739</v>
       </c>
       <c r="P46" t="n">
-        <v>27.21378378749439</v>
+        <v>27.2137837874944</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.84141329424315</v>
+        <v>18.84141329424316</v>
       </c>
       <c r="R46" t="n">
         <v>10.11721096008323</v>
       </c>
       <c r="S46" t="n">
-        <v>3.921288598964728</v>
+        <v>3.921288598964729</v>
       </c>
       <c r="T46" t="n">
-        <v>0.961400960622547</v>
+        <v>0.9614009606225472</v>
       </c>
       <c r="U46" t="n">
         <v>0.01227320375262828</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>30.62494344068237</v>
+        <v>30.62494344068241</v>
       </c>
       <c r="K11" t="n">
         <v>167.863300254996</v>
@@ -35428,7 +35428,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.17844238427591</v>
+        <v>44.17844238427581</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>24.61033006392657</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>169.9628154850614</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M12" t="n">
-        <v>365.9739823579188</v>
+        <v>180.1232894827321</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>380.423838424175</v>
       </c>
       <c r="O12" t="n">
         <v>315.1227627601127</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.26553851340484</v>
+        <v>54.2655385134049</v>
       </c>
       <c r="K13" t="n">
         <v>135.589033199928</v>
@@ -35574,19 +35574,19 @@
         <v>192.7592886547759</v>
       </c>
       <c r="M13" t="n">
-        <v>74.85501901293543</v>
+        <v>206.5716200456481</v>
       </c>
       <c r="N13" t="n">
-        <v>195.2198746191357</v>
+        <v>195.2198746191344</v>
       </c>
       <c r="O13" t="n">
         <v>188.1056909377297</v>
       </c>
       <c r="P13" t="n">
-        <v>156.2089440851005</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.39597107526139</v>
+        <v>64.39597107526146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>30.62494344068237</v>
+        <v>30.62494344068239</v>
       </c>
       <c r="K14" t="n">
-        <v>167.863300254996</v>
+        <v>167.8633002549961</v>
       </c>
       <c r="L14" t="n">
         <v>261.0539417397704</v>
@@ -35665,7 +35665,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.17844238427591</v>
+        <v>44.17844238427581</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>24.61033006392657</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>169.9628154850614</v>
@@ -35732,19 +35732,19 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M15" t="n">
-        <v>380.4238384241749</v>
+        <v>380.423838424175</v>
       </c>
       <c r="N15" t="n">
-        <v>380.4238384241749</v>
+        <v>380.423838424175</v>
       </c>
       <c r="O15" t="n">
-        <v>260.3432483132037</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>180.5983813263499</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.26553851340484</v>
+        <v>39.20416659260085</v>
       </c>
       <c r="K16" t="n">
-        <v>135.589033199928</v>
+        <v>135.5890331999279</v>
       </c>
       <c r="L16" t="n">
-        <v>192.7592886547759</v>
+        <v>192.7592886547758</v>
       </c>
       <c r="M16" t="n">
-        <v>74.85501901293543</v>
+        <v>206.571620045648</v>
       </c>
       <c r="N16" t="n">
-        <v>195.2198746191357</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O16" t="n">
         <v>188.1056909377297</v>
@@ -35823,7 +35823,7 @@
         <v>156.2089440851005</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.39597107526139</v>
+        <v>64.39597107526137</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>30.62494344068237</v>
+        <v>30.62494344068239</v>
       </c>
       <c r="K17" t="n">
         <v>167.863300254996</v>
@@ -35902,7 +35902,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.1784423842758</v>
+        <v>44.17844238427581</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35966,13 +35966,13 @@
         <v>169.9628154850614</v>
       </c>
       <c r="L18" t="n">
-        <v>290.5606228478076</v>
+        <v>276.1107667815517</v>
       </c>
       <c r="M18" t="n">
-        <v>380.4238384241749</v>
+        <v>380.423838424175</v>
       </c>
       <c r="N18" t="n">
-        <v>89.90534098452441</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>315.1227627601127</v>
@@ -35981,7 +35981,7 @@
         <v>235.7389829927417</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,16 +36042,16 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.87243216721534</v>
+        <v>3.872432167215347</v>
       </c>
       <c r="L19" t="n">
-        <v>61.04268762206325</v>
+        <v>61.04268762206326</v>
       </c>
       <c r="M19" t="n">
-        <v>74.85501901293543</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N19" t="n">
-        <v>78.5646455072272</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O19" t="n">
         <v>56.38908990501706</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>30.62494344068237</v>
+        <v>30.62494344068239</v>
       </c>
       <c r="K20" t="n">
-        <v>167.863300254996</v>
+        <v>167.8633002549961</v>
       </c>
       <c r="L20" t="n">
         <v>261.0539417397704</v>
@@ -36139,7 +36139,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.17844238427591</v>
+        <v>44.17844238427581</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>169.9628154850614</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M21" t="n">
-        <v>325.283236757783</v>
+        <v>380.423838424175</v>
       </c>
       <c r="N21" t="n">
-        <v>380.4238384241749</v>
+        <v>180.1232894827321</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>315.1227627601127</v>
       </c>
       <c r="P21" t="n">
         <v>235.7389829927417</v>
@@ -36279,16 +36279,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.87243216721534</v>
+        <v>3.872432167215347</v>
       </c>
       <c r="L22" t="n">
-        <v>61.04268762206325</v>
+        <v>61.04268762206326</v>
       </c>
       <c r="M22" t="n">
-        <v>74.85501901293543</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N22" t="n">
-        <v>78.5646455072272</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O22" t="n">
         <v>56.38908990501706</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>30.6249434406838</v>
+        <v>30.62494344068239</v>
       </c>
       <c r="K23" t="n">
-        <v>167.863300254996</v>
+        <v>167.8633002549961</v>
       </c>
       <c r="L23" t="n">
         <v>261.0539417397704</v>
@@ -36376,7 +36376,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.1784423842758</v>
+        <v>44.17844238427581</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K24" t="n">
         <v>169.9628154850614</v>
@@ -36443,13 +36443,13 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M24" t="n">
-        <v>10.16047399767142</v>
+        <v>380.423838424175</v>
       </c>
       <c r="N24" t="n">
-        <v>380.4238384241752</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>315.1227627601127</v>
+        <v>300.6729066938566</v>
       </c>
       <c r="P24" t="n">
         <v>235.7389829927417</v>
@@ -36516,16 +36516,16 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.87243216721534</v>
+        <v>3.872432167215347</v>
       </c>
       <c r="L25" t="n">
-        <v>61.04268762206325</v>
+        <v>61.04268762206326</v>
       </c>
       <c r="M25" t="n">
-        <v>74.85501901293543</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N25" t="n">
-        <v>78.5646455072272</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O25" t="n">
         <v>56.38908990501706</v>
@@ -36613,10 +36613,10 @@
         <v>312.7431224494998</v>
       </c>
       <c r="Q26" t="n">
-        <v>194.2225026627282</v>
+        <v>194.2225026627278</v>
       </c>
       <c r="R26" t="n">
-        <v>31.68472776362605</v>
+        <v>31.68472776362606</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M27" t="n">
-        <v>391.574806287336</v>
+        <v>391.5748062873361</v>
       </c>
       <c r="N27" t="n">
         <v>417.8042963309015</v>
@@ -36753,25 +36753,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>3.87243216721534</v>
+        <v>3.872432167215347</v>
       </c>
       <c r="L28" t="n">
-        <v>61.04268762206325</v>
+        <v>142.8049861649289</v>
       </c>
       <c r="M28" t="n">
-        <v>74.85501901293543</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N28" t="n">
-        <v>160.3269440500928</v>
+        <v>228.6087057856792</v>
       </c>
       <c r="O28" t="n">
         <v>206.4331501834691</v>
       </c>
       <c r="P28" t="n">
-        <v>174.5364033308399</v>
+        <v>24.49234305238788</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.72343032100078</v>
+        <v>82.72343032100079</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R29" t="n">
-        <v>31.68472776362604</v>
+        <v>31.68472776362606</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M30" t="n">
-        <v>391.574806287336</v>
+        <v>391.5748062873361</v>
       </c>
       <c r="N30" t="n">
         <v>417.8042963309015</v>
@@ -36984,31 +36984,31 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.360211686809441</v>
+        <v>1.360211686809443</v>
       </c>
       <c r="J31" t="n">
-        <v>72.59299775914423</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>3.87243216721534</v>
+        <v>3.872432167215347</v>
       </c>
       <c r="L31" t="n">
-        <v>61.04268762206325</v>
+        <v>211.0867479005153</v>
       </c>
       <c r="M31" t="n">
-        <v>82.66410810984743</v>
+        <v>224.8990792913875</v>
       </c>
       <c r="N31" t="n">
-        <v>78.5646455072272</v>
+        <v>228.6087057856792</v>
       </c>
       <c r="O31" t="n">
-        <v>206.4331501834691</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P31" t="n">
-        <v>174.5364033308399</v>
+        <v>37.57379995099287</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.72343032100078</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>180.6690037191344</v>
+        <v>180.6690037191347</v>
       </c>
       <c r="K32" t="n">
-        <v>317.9073605334481</v>
+        <v>317.907360533448</v>
       </c>
       <c r="L32" t="n">
         <v>411.0980020182224</v>
@@ -37078,10 +37078,10 @@
         <v>457.2911585300419</v>
       </c>
       <c r="N32" t="n">
-        <v>447.4829422958831</v>
+        <v>447.482942295883</v>
       </c>
       <c r="O32" t="n">
-        <v>385.2630835770078</v>
+        <v>385.2630835770076</v>
       </c>
       <c r="P32" t="n">
         <v>312.7431224494998</v>
@@ -37090,7 +37090,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R32" t="n">
-        <v>31.68472776362607</v>
+        <v>31.68472776362603</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M33" t="n">
-        <v>391.574806287336</v>
+        <v>391.5748062873361</v>
       </c>
       <c r="N33" t="n">
         <v>417.8042963309015</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.428587260239681</v>
+        <v>1.428587260239624</v>
       </c>
       <c r="E34" t="n">
-        <v>3.610097631882866</v>
+        <v>3.610097631882809</v>
       </c>
       <c r="F34" t="n">
-        <v>4.623012255520791</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,31 +37221,31 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.360211686809469</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>84.27451902327093</v>
+        <v>153.9164924456673</v>
       </c>
       <c r="L34" t="n">
-        <v>61.04268762206325</v>
+        <v>211.0867479005152</v>
       </c>
       <c r="M34" t="n">
-        <v>224.8990792913875</v>
+        <v>224.8990792913874</v>
       </c>
       <c r="N34" t="n">
-        <v>78.5646455072272</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O34" t="n">
-        <v>206.4331501834691</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P34" t="n">
         <v>24.49234305238788</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.72343032100081</v>
+        <v>19.06468084093555</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>30.62494344068237</v>
+        <v>30.62494344068239</v>
       </c>
       <c r="K35" t="n">
         <v>167.863300254996</v>
@@ -37324,7 +37324,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q35" t="n">
-        <v>44.1784423842758</v>
+        <v>44.17844238427581</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K36" t="n">
         <v>169.9628154850614</v>
       </c>
       <c r="L36" t="n">
-        <v>290.5606228478076</v>
+        <v>276.1107667815515</v>
       </c>
       <c r="M36" t="n">
         <v>380.4238384241749</v>
       </c>
       <c r="N36" t="n">
-        <v>350.2546540411925</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>315.1227627601127</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,16 +37464,16 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3.87243216721534</v>
+        <v>3.872432167215347</v>
       </c>
       <c r="L37" t="n">
-        <v>61.04268762206325</v>
+        <v>61.04268762206326</v>
       </c>
       <c r="M37" t="n">
-        <v>74.85501901293543</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N37" t="n">
-        <v>78.5646455072272</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O37" t="n">
         <v>56.38908990501706</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>30.62494344068237</v>
+        <v>30.62494344068239</v>
       </c>
       <c r="K38" t="n">
         <v>167.863300254996</v>
@@ -37561,7 +37561,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.1784423842758</v>
+        <v>44.17844238427581</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>24.61033006392657</v>
       </c>
       <c r="K39" t="n">
-        <v>169.9628154850614</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>290.5606228478076</v>
@@ -37631,16 +37631,16 @@
         <v>380.4238384241749</v>
       </c>
       <c r="N39" t="n">
-        <v>325.644323977266</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="O39" t="n">
-        <v>315.1227627601127</v>
+        <v>90.21188375474291</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,16 +37701,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.87243216721534</v>
+        <v>3.872432167215347</v>
       </c>
       <c r="L40" t="n">
-        <v>61.04268762206325</v>
+        <v>61.04268762206326</v>
       </c>
       <c r="M40" t="n">
-        <v>74.85501901293543</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N40" t="n">
-        <v>78.5646455072272</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O40" t="n">
         <v>56.38908990501706</v>
@@ -37774,16 +37774,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>29.76276805604384</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>30.62494344068237</v>
+        <v>30.62494344068239</v>
       </c>
       <c r="K41" t="n">
         <v>167.863300254996</v>
       </c>
       <c r="L41" t="n">
-        <v>307.208807016779</v>
+        <v>261.0539417397704</v>
       </c>
       <c r="M41" t="n">
         <v>307.2470982515899</v>
@@ -37795,16 +37795,16 @@
         <v>235.2190232985557</v>
       </c>
       <c r="P41" t="n">
-        <v>162.6990621710478</v>
+        <v>364.4679524181809</v>
       </c>
       <c r="Q41" t="n">
-        <v>44.1784423842758</v>
+        <v>44.17844238427581</v>
       </c>
       <c r="R41" t="n">
-        <v>102.5406826003573</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>23.3105743137245</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>24.61033006392657</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L42" t="n">
         <v>290.5606228478076</v>
       </c>
       <c r="M42" t="n">
-        <v>391.574806287336</v>
+        <v>278.9041033888575</v>
       </c>
       <c r="N42" t="n">
         <v>417.8042963309015</v>
@@ -37877,7 +37877,7 @@
         <v>235.7389829927417</v>
       </c>
       <c r="Q42" t="n">
-        <v>32.68178252265746</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,16 +37938,16 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.87243216721534</v>
+        <v>3.872432167215347</v>
       </c>
       <c r="L43" t="n">
-        <v>61.04268762206325</v>
+        <v>61.04268762206326</v>
       </c>
       <c r="M43" t="n">
-        <v>74.85501901293543</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N43" t="n">
-        <v>78.5646455072272</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O43" t="n">
         <v>56.38908990501706</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>30.62494344068237</v>
+        <v>30.62494344068239</v>
       </c>
       <c r="K44" t="n">
         <v>167.863300254996</v>
       </c>
       <c r="L44" t="n">
-        <v>336.9715750728228</v>
+        <v>261.0539417397704</v>
       </c>
       <c r="M44" t="n">
         <v>307.2470982515899</v>
@@ -38032,16 +38032,16 @@
         <v>235.2190232985557</v>
       </c>
       <c r="P44" t="n">
-        <v>162.6990621710478</v>
+        <v>238.6166955040989</v>
       </c>
       <c r="Q44" t="n">
-        <v>44.1784423842758</v>
+        <v>44.17844238427581</v>
       </c>
       <c r="R44" t="n">
-        <v>102.5406826003573</v>
+        <v>102.5406826003574</v>
       </c>
       <c r="S44" t="n">
-        <v>23.3105743137245</v>
+        <v>23.31057431372459</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>57.29211258658405</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L45" t="n">
-        <v>290.5606228478076</v>
+        <v>73.53472289854858</v>
       </c>
       <c r="M45" t="n">
-        <v>391.574806287336</v>
+        <v>391.5748062873361</v>
       </c>
       <c r="N45" t="n">
         <v>417.8042963309015</v>
@@ -38114,7 +38114,7 @@
         <v>235.7389829927417</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,16 +38175,16 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.87243216721534</v>
+        <v>3.872432167215347</v>
       </c>
       <c r="L46" t="n">
-        <v>61.04268762206325</v>
+        <v>61.04268762206326</v>
       </c>
       <c r="M46" t="n">
-        <v>74.85501901293543</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N46" t="n">
-        <v>78.5646455072272</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O46" t="n">
         <v>56.38908990501706</v>
